--- a/Reports/ZacksRank/Tanzy_ETF.xlsx
+++ b/Reports/ZacksRank/Tanzy_ETF.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/setup/Desktop/Personal/Finance_Learn_Reports/ZacksRank/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i852841/_Codes/_Personal/StockRankingCrawler/Reports/ZacksRank/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{420048DB-D68E-054C-9332-48539B4D5238}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33"/>
+  <xr:revisionPtr documentId="13_ncr:1_{3CD1AAE1-5EFC-2F40-BEAF-EB69325A32AE}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34"/>
   <bookViews>
     <workbookView activeTab="2" windowHeight="19700" windowWidth="33600" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="460"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="127">
   <si>
     <t>Jun_04</t>
   </si>
@@ -216,100 +216,193 @@
     <t>Rank [Strong Buy]  Price [$204.98] NAV [199.04] Expense Ratio [0.44%] Risk [Med]</t>
   </si>
   <si>
+    <t>Jun_10</t>
+  </si>
+  <si>
+    <t>Jun_12</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$38.07] NAV [36.31] Expense Ratio [0.39%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$49.46] NAV [47.44] Expense Ratio [0.70%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$259.06] NAV [249.77] Expense Ratio [0.15%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$23.60] NAV [23.27] Expense Ratio [0.68%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$29.64] NAV [29.16] Expense Ratio [0.75%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$23.60] NAV [23.38] Expense Ratio [0.40%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$175.83] NAV [NA] Expense Ratio [0.20%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$278.97] NAV [270.74] Expense Ratio [0.09%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$85.95] NAV [83.89] Expense Ratio [0.08%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$144.42] NAV [140.03] Expense Ratio [0.04%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$107.08] NAV [104.23] Expense Ratio [0.05%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$202.28] NAV [199.04] Expense Ratio [0.44%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$253.30] NAV [244.16] Expense Ratio [0.17%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$167.50] NAV [162.58] Expense Ratio [0.20%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Jun_13</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$38.01] NAV [36.31] Expense Ratio [0.39%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$49.39] NAV [47.44] Expense Ratio [0.70%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$64.57] NAV [249.77] Expense Ratio [0.15%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$23.47] NAV [23.27] Expense Ratio [0.68%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$29.77] NAV [29.16] Expense Ratio [0.75%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$23.43] NAV [23.38] Expense Ratio [0.40%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$175.82] NAV [NA] Expense Ratio [0.20%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$278.01] NAV [270.74] Expense Ratio [0.09%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$85.41] NAV [83.89] Expense Ratio [0.08%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$143.88] NAV [140.03] Expense Ratio [0.04%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$106.62] NAV [104.23] Expense Ratio [0.05%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$201.23] NAV [199.04] Expense Ratio [0.44%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$252.18] NAV [244.16] Expense Ratio [0.17%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$166.93] NAV [162.58] Expense Ratio [0.20%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Jun_15</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$38.24] NAV [36.31] Expense Ratio [0.39%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$49.57] NAV [47.44] Expense Ratio [0.70%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$65.00] NAV [62.44] Expense Ratio [0.15%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$23.11] NAV [23.27] Expense Ratio [0.68%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$30.24] NAV [29.16] Expense Ratio [0.75%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$23.54] NAV [23.38] Expense Ratio [0.40%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$176.98] NAV [NA] Expense Ratio [0.20%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$277.03] NAV [270.74] Expense Ratio [0.09%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$85.34] NAV [83.89] Expense Ratio [0.08%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$144.15] NAV [140.03] Expense Ratio [0.04%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$106.47] NAV [104.23] Expense Ratio [0.05%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$198.82] NAV [199.04] Expense Ratio [0.44%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$250.74] NAV [244.16] Expense Ratio [0.17%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$167.70] NAV [162.58] Expense Ratio [0.20%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Jun_17</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>Jun_10</t>
-  </si>
-  <si>
-    <t>Jun_12</t>
-  </si>
-  <si>
-    <t>Rank [Hold]  Price [$38.07] NAV [36.31] Expense Ratio [0.39%] Risk [High]</t>
-  </si>
-  <si>
-    <t>Rank [Hold]  Price [$49.46] NAV [47.44] Expense Ratio [0.70%] Risk [High]</t>
-  </si>
-  <si>
-    <t>Rank [Hold]  Price [$259.06] NAV [249.77] Expense Ratio [0.15%] Risk [Med]</t>
-  </si>
-  <si>
-    <t>Rank [UN]  Price [$23.60] NAV [23.27] Expense Ratio [0.68%] Risk [NA]</t>
-  </si>
-  <si>
-    <t>Rank [UN]  Price [$29.64] NAV [29.16] Expense Ratio [0.75%] Risk [High]</t>
-  </si>
-  <si>
-    <t>Rank [Hold]  Price [$23.60] NAV [23.38] Expense Ratio [0.40%] Risk [Med]</t>
-  </si>
-  <si>
-    <t>Rank [Buy]  Price [$175.83] NAV [NA] Expense Ratio [0.20%] Risk [Med]</t>
-  </si>
-  <si>
-    <t>Rank [Hold]  Price [$278.97] NAV [270.74] Expense Ratio [0.09%] Risk [Med]</t>
-  </si>
-  <si>
-    <t>Rank [Buy]  Price [$85.95] NAV [83.89] Expense Ratio [0.08%] Risk [Med]</t>
-  </si>
-  <si>
-    <t>Rank [Hold]  Price [$144.42] NAV [140.03] Expense Ratio [0.04%] Risk [Med]</t>
-  </si>
-  <si>
-    <t>Rank [Buy]  Price [$107.08] NAV [104.23] Expense Ratio [0.05%] Risk [Med]</t>
-  </si>
-  <si>
-    <t>Rank [Strong Buy]  Price [$202.28] NAV [199.04] Expense Ratio [0.44%] Risk [Med]</t>
-  </si>
-  <si>
-    <t>Rank [Strong Buy]  Price [$253.30] NAV [244.16] Expense Ratio [0.17%] Risk [Med]</t>
-  </si>
-  <si>
-    <t>Rank [Hold]  Price [$167.50] NAV [162.58] Expense Ratio [0.20%] Risk [Med]</t>
-  </si>
-  <si>
-    <t>Jun_13</t>
-  </si>
-  <si>
-    <t>Rank [Hold]  Price [$38.01] NAV [36.31] Expense Ratio [0.39%] Risk [High]</t>
-  </si>
-  <si>
-    <t>Rank [Hold]  Price [$49.39] NAV [47.44] Expense Ratio [0.70%] Risk [High]</t>
-  </si>
-  <si>
-    <t>Rank [Hold]  Price [$64.57] NAV [249.77] Expense Ratio [0.15%] Risk [Med]</t>
-  </si>
-  <si>
-    <t>Rank [UN]  Price [$23.47] NAV [23.27] Expense Ratio [0.68%] Risk [NA]</t>
-  </si>
-  <si>
-    <t>Rank [UN]  Price [$29.77] NAV [29.16] Expense Ratio [0.75%] Risk [High]</t>
-  </si>
-  <si>
-    <t>Rank [Hold]  Price [$23.43] NAV [23.38] Expense Ratio [0.40%] Risk [Med]</t>
-  </si>
-  <si>
-    <t>Rank [Buy]  Price [$175.82] NAV [NA] Expense Ratio [0.20%] Risk [Med]</t>
-  </si>
-  <si>
-    <t>Rank [Hold]  Price [$278.01] NAV [270.74] Expense Ratio [0.09%] Risk [Med]</t>
-  </si>
-  <si>
-    <t>Rank [Buy]  Price [$85.41] NAV [83.89] Expense Ratio [0.08%] Risk [Med]</t>
-  </si>
-  <si>
-    <t>Rank [Hold]  Price [$143.88] NAV [140.03] Expense Ratio [0.04%] Risk [Med]</t>
-  </si>
-  <si>
-    <t>Rank [Buy]  Price [$106.62] NAV [104.23] Expense Ratio [0.05%] Risk [Med]</t>
-  </si>
-  <si>
-    <t>Rank [Strong Buy]  Price [$201.23] NAV [199.04] Expense Ratio [0.44%] Risk [Med]</t>
-  </si>
-  <si>
-    <t>Rank [Strong Buy]  Price [$252.18] NAV [244.16] Expense Ratio [0.17%] Risk [Med]</t>
-  </si>
-  <si>
-    <t>Rank [Hold]  Price [$166.93] NAV [162.58] Expense Ratio [0.20%] Risk [Med]</t>
+    <t>Jun_18</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$38.34] NAV [36.31] Expense Ratio [0.39%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$50.25] NAV [47.44] Expense Ratio [0.70%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$65.09] NAV [62.44] Expense Ratio [0.15%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$22.82] NAV [23.27] Expense Ratio [0.68%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$30.50] NAV [29.16] Expense Ratio [0.75%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$23.76] NAV [23.38] Expense Ratio [0.40%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$176.50] NAV [NA] Expense Ratio [0.20%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$276.59] NAV [270.74] Expense Ratio [0.09%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$84.84] NAV [83.89] Expense Ratio [0.08%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$143.99] NAV [140.03] Expense Ratio [0.04%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$106.08] NAV [104.23] Expense Ratio [0.05%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$199.03] NAV [199.04] Expense Ratio [0.44%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$249.73] NAV [244.16] Expense Ratio [0.17%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$168.60] NAV [162.58] Expense Ratio [0.20%] Risk [Med]</t>
   </si>
 </sst>
 </file>
@@ -326,12 +419,42 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -346,8 +469,17 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -662,10 +794,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -678,118 +810,157 @@
     <col min="7" max="7" customWidth="true" width="58.83203125" collapsed="true"/>
     <col min="8" max="8" customWidth="true" width="58.83203125" collapsed="true"/>
     <col min="9" max="9" customWidth="true" width="58.83203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="58.83203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="58.83203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="58.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="D1" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="G1" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>82</v>
+      <c r="B2" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="H2" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="I2" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="J2" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="K2" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="L2" s="0" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>83</v>
+      <c r="B3" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="H3" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="I3" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="J3" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="K3" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="L3" s="0" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>84</v>
+      <c r="B4" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="H4" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="I4" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="J4" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="K4" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="L4" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -800,7 +971,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
@@ -816,89 +987,119 @@
     <col min="7" max="7" customWidth="true" width="55.5" collapsed="true"/>
     <col min="8" max="8" customWidth="true" width="55.5" collapsed="true"/>
     <col min="9" max="9" customWidth="true" width="55.5" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="55.5" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="55.5" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="55.5" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="D1" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="G1" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="H2" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="I2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="J2" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="K2" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="L2" s="0" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="H3" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="I3" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="J3" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="K3" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="L3" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -909,237 +1110,330 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5.6640625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="63.5" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="63.5" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="63.5" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="63.5" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="63.5" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="58.83203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="58.83203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="58.83203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="58.83203125" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="63.5" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="63.5" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="63.5" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="58.83203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="58.83203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="58.83203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="58.83203125" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="D1" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="G1" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="H2" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="I2" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="J2" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="K2" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="L2" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
-        <v>88</v>
+      <c r="B3" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="H3" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="I3" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="J3" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="K3" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="L3" s="0" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
-        <v>89</v>
+      <c r="B4" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="H4" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="I4" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="J4" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="K4" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="L4" s="0" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="H5" s="0" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="H6" s="0" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>45</v>
       </c>
-      <c r="B7" t="s">
-        <v>92</v>
+      <c r="B7" s="6" t="s">
+        <v>123</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="D7" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="H7" s="0" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>46</v>
       </c>
-      <c r="B8" t="s">
-        <v>93</v>
+      <c r="B8" s="7" t="s">
+        <v>124</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="H8" s="0" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>47</v>
       </c>
-      <c r="B9" t="s">
-        <v>94</v>
+      <c r="B9" s="8" t="s">
+        <v>125</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="D9" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="H9" s="0" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>48</v>
       </c>
-      <c r="B10" t="s">
-        <v>95</v>
+      <c r="B10" s="9" t="s">
+        <v>126</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="D10" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="H10" s="0" t="s">
         <v>62</v>
       </c>
     </row>

--- a/Reports/ZacksRank/Tanzy_ETF.xlsx
+++ b/Reports/ZacksRank/Tanzy_ETF.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="216">
   <si>
     <t>Jun_04</t>
   </si>
@@ -583,6 +583,93 @@
   </si>
   <si>
     <t>Jun_24</t>
+  </si>
+  <si>
+    <t>Jun_26</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$37.20] NAV [36.31] Expense Ratio [0.39%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$49.16] NAV [47.44] Expense Ratio [0.70%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$63.96] NAV [62.44] Expense Ratio [0.15%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$22.28] NAV [23.27] Expense Ratio [0.68%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$29.85] NAV [29.16] Expense Ratio [0.75%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$23.91] NAV [23.38] Expense Ratio [0.40%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$172.07] NAV [NA] Expense Ratio [0.20%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$271.58] NAV [270.74] Expense Ratio [0.09%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$83.08] NAV [83.89] Expense Ratio [0.08%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$140.77] NAV [140.03] Expense Ratio [0.04%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$103.97] NAV [104.23] Expense Ratio [0.05%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$192.27] NAV [199.04] Expense Ratio [0.44%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$242.67] NAV [244.16] Expense Ratio [0.17%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$166.08] NAV [162.58] Expense Ratio [0.20%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Jun_27</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$36.17] NAV [36.31] Expense Ratio [0.39%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$47.99] NAV [47.44] Expense Ratio [0.70%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$62.92] NAV [249.77] Expense Ratio [0.15%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$21.96] NAV [23.27] Expense Ratio [0.68%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$28.90] NAV [29.16] Expense Ratio [0.75%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$169.73] NAV [NA] Expense Ratio [0.20%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$269.80] NAV [270.74] Expense Ratio [0.09%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$82.66] NAV [83.89] Expense Ratio [0.08%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$139.46] NAV [140.03] Expense Ratio [0.04%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$103.34] NAV [104.23] Expense Ratio [0.05%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$190.98] NAV [199.04] Expense Ratio [0.44%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$241.28] NAV [244.16] Expense Ratio [0.17%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$163.49] NAV [162.58] Expense Ratio [0.20%] Risk [Med]</t>
   </si>
 </sst>
 </file>
@@ -969,8 +1056,8 @@
   <cols>
     <col min="2" max="2" bestFit="true" customWidth="true" width="61.5" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="61.5" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="58.83203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="58.83203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="61.5" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="61.5" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="58.83203125" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="58.83203125" collapsed="true"/>
     <col min="8" max="8" customWidth="true" width="58.83203125" collapsed="true"/>
@@ -983,55 +1070,63 @@
     <col min="15" max="15" customWidth="true" width="58.83203125" collapsed="true"/>
     <col min="16" max="16" customWidth="true" width="58.83203125" collapsed="true"/>
     <col min="17" max="17" customWidth="true" width="58.83203125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="58.83203125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="58.83203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>186</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="S1" s="0" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1040,51 +1135,57 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="E2" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="H2" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="J2" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="K2" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="L2" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="M2" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="N2" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="M2" s="0" t="s">
+      <c r="O2" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="N2" s="0" t="s">
+      <c r="P2" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="O2" s="0" t="s">
+      <c r="Q2" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="0" t="s">
+      <c r="R2" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="0" t="s">
+      <c r="S2" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1093,51 +1194,57 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="G3" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="H3" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="J3" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="K3" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="L3" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="M3" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="L3" s="0" t="s">
+      <c r="N3" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="O3" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="P3" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="O3" s="0" t="s">
+      <c r="Q3" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="0" t="s">
+      <c r="R3" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="0" t="s">
+      <c r="S3" s="0" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1146,51 +1253,57 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="E4" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="F4" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="G4" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="H4" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="J4" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="K4" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="L4" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="M4" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="L4" s="0" t="s">
+      <c r="N4" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="M4" s="0" t="s">
+      <c r="O4" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="N4" s="0" t="s">
+      <c r="P4" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="O4" s="0" t="s">
+      <c r="Q4" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="0" t="s">
+      <c r="R4" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="Q4" s="0" t="s">
+      <c r="S4" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1224,56 +1337,64 @@
     <col min="14" max="14" customWidth="true" width="55.5" collapsed="true"/>
     <col min="15" max="15" customWidth="true" width="55.5" collapsed="true"/>
     <col min="16" max="16" customWidth="true" width="55.5" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="55.5" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="55.5" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="55.5" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="55.5" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>186</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="S1" s="0" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1282,51 +1403,57 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="D2" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="E2" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="H2" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="I2" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="J2" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="K2" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="L2" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="M2" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="N2" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="M2" s="0" t="s">
+      <c r="O2" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="N2" s="0" t="s">
+      <c r="P2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="O2" s="0" t="s">
+      <c r="Q2" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="0" t="s">
+      <c r="R2" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="0" t="s">
+      <c r="S2" s="0" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1335,51 +1462,57 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="G3" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="H3" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="I3" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="J3" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="K3" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="L3" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="M3" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="L3" s="0" t="s">
+      <c r="N3" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="O3" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="P3" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="O3" s="0" t="s">
+      <c r="Q3" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="P3" s="0" t="s">
+      <c r="R3" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="0" t="s">
+      <c r="S3" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1399,55 +1532,75 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5.6640625" collapsed="true"/>
-    <col min="2" max="12" customWidth="true" width="63.5" collapsed="true"/>
-    <col min="13" max="15" customWidth="true" width="58.83203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="63.5" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="63.5" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="63.5" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="63.5" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="63.5" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="63.5" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="63.5" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="63.5" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="63.5" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="63.5" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="63.5" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="63.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="63.5" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="58.83203125" collapsed="true"/>
     <col min="16" max="16" customWidth="true" width="58.83203125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="58.83203125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="58.83203125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" s="0" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1456,48 +1609,54 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="D2" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" s="0" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1506,48 +1665,54 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="L3" t="s">
+      <c r="N3" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="M3" t="s">
+      <c r="O3" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Q3" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="P3" t="s">
+      <c r="R3" s="0" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1556,48 +1721,54 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="M4" t="s">
+      <c r="O4" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Q4" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="P4" t="s">
+      <c r="R4" s="0" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1606,36 +1777,42 @@
         <v>43</v>
       </c>
       <c r="B5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K5" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="L5" t="s">
+      <c r="N5" s="0" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1644,36 +1821,42 @@
         <v>44</v>
       </c>
       <c r="B6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="H6" t="s">
+      <c r="J6" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="I6" t="s">
+      <c r="K6" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="L6" t="s">
+      <c r="N6" s="0" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1682,36 +1865,42 @@
         <v>45</v>
       </c>
       <c r="B7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="D7" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="H7" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="G7" t="s">
+      <c r="I7" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="I7" t="s">
+      <c r="K7" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="L7" t="s">
+      <c r="N7" s="0" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1720,36 +1909,42 @@
         <v>46</v>
       </c>
       <c r="B8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D8" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="H8" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="G8" t="s">
+      <c r="I8" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="H8" t="s">
+      <c r="J8" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="I8" t="s">
+      <c r="K8" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L8" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="K8" t="s">
+      <c r="M8" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="L8" t="s">
+      <c r="N8" s="0" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1758,36 +1953,42 @@
         <v>47</v>
       </c>
       <c r="B9" t="s">
+        <v>214</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="D9" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="H9" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="G9" t="s">
+      <c r="I9" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="H9" t="s">
+      <c r="J9" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="I9" t="s">
+      <c r="K9" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="J9" t="s">
+      <c r="L9" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="K9" t="s">
+      <c r="M9" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="L9" t="s">
+      <c r="N9" s="0" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1796,36 +1997,42 @@
         <v>48</v>
       </c>
       <c r="B10" t="s">
+        <v>215</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="D10" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="H10" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="G10" t="s">
+      <c r="I10" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="H10" t="s">
+      <c r="J10" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="I10" t="s">
+      <c r="K10" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="J10" t="s">
+      <c r="L10" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="K10" t="s">
+      <c r="M10" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="L10" t="s">
+      <c r="N10" s="0" t="s">
         <v>62</v>
       </c>
     </row>

--- a/Reports/ZacksRank/Tanzy_ETF.xlsx
+++ b/Reports/ZacksRank/Tanzy_ETF.xlsx
@@ -1,28 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i852841/_Codes/_Personal/StockRankingCrawler/Reports/ZacksRank/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{9CCBF40A-7FE6-A247-9EF7-D5AD47F1506D}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34"/>
+  <xr:revisionPtr documentId="13_ncr:1_{0518F311-3E0A-2340-A842-CD415EB41CBA}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40"/>
   <bookViews>
-    <workbookView windowHeight="19560" windowWidth="33600" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="460"/>
+    <workbookView activeTab="4" windowHeight="19520" windowWidth="33600" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="460"/>
   </bookViews>
   <sheets>
     <sheet name="SmallCap" r:id="rId1" sheetId="1"/>
     <sheet name="Thematic" r:id="rId2" sheetId="2"/>
     <sheet name="Watch" r:id="rId3" sheetId="3"/>
+    <sheet name="Emerging" r:id="rId4" sheetId="4"/>
+    <sheet name="Indexes" r:id="rId5" sheetId="5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27893" uniqueCount="1329">
   <si>
     <t>Jun_04</t>
   </si>
@@ -579,97 +581,3436 @@
     <t>Rank [Buy]  Price [$167.78] NAV [162.58] Expense Ratio [0.20%] Risk [Med]</t>
   </si>
   <si>
+    <t>Jun_24</t>
+  </si>
+  <si>
+    <t>Jun_26</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$37.20] NAV [36.31] Expense Ratio [0.39%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$49.16] NAV [47.44] Expense Ratio [0.70%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$63.96] NAV [62.44] Expense Ratio [0.15%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$22.28] NAV [23.27] Expense Ratio [0.68%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$29.85] NAV [29.16] Expense Ratio [0.75%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$23.91] NAV [23.38] Expense Ratio [0.40%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$172.07] NAV [NA] Expense Ratio [0.20%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$271.58] NAV [270.74] Expense Ratio [0.09%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$83.08] NAV [83.89] Expense Ratio [0.08%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$140.77] NAV [140.03] Expense Ratio [0.04%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$103.97] NAV [104.23] Expense Ratio [0.05%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$192.27] NAV [199.04] Expense Ratio [0.44%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$242.67] NAV [244.16] Expense Ratio [0.17%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$166.08] NAV [162.58] Expense Ratio [0.20%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Jun_27</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$36.17] NAV [36.31] Expense Ratio [0.39%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$47.99] NAV [47.44] Expense Ratio [0.70%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$62.92] NAV [249.77] Expense Ratio [0.15%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$21.96] NAV [23.27] Expense Ratio [0.68%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$28.90] NAV [29.16] Expense Ratio [0.75%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$169.73] NAV [NA] Expense Ratio [0.20%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$269.80] NAV [270.74] Expense Ratio [0.09%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$82.66] NAV [83.89] Expense Ratio [0.08%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$139.46] NAV [140.03] Expense Ratio [0.04%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$103.34] NAV [104.23] Expense Ratio [0.05%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$190.98] NAV [199.04] Expense Ratio [0.44%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$241.28] NAV [244.16] Expense Ratio [0.17%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$163.49] NAV [162.58] Expense Ratio [0.20%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Jul_01</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$36.57] NAV [36.31] Expense Ratio [0.39%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$48.52] NAV [47.44] Expense Ratio [0.70%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$63.20] NAV [249.77] Expense Ratio [0.15%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$22.01] NAV [23.27] Expense Ratio [0.68%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$29.06] NAV [29.16] Expense Ratio [0.75%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$171.65] NAV [NA] Expense Ratio [0.20%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$271.34] NAV [270.74] Expense Ratio [0.09%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$83.05] NAV [83.89] Expense Ratio [0.08%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$140.43] NAV [140.03] Expense Ratio [0.04%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$103.83] NAV [104.23] Expense Ratio [0.05%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$192.47] NAV [199.04] Expense Ratio [0.44%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$242.73] NAV [244.16] Expense Ratio [0.17%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$163.74] NAV [162.58] Expense Ratio [0.20%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Jul_02</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$36.83] NAV [36.31] Expense Ratio [0.39%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$48.99] NAV [47.44] Expense Ratio [0.70%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$63.93] NAV [249.77] Expense Ratio [0.15%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$21.92] NAV [23.27] Expense Ratio [0.68%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$29.70] NAV [29.16] Expense Ratio [0.75%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$172.80] NAV [NA] Expense Ratio [0.20%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$271.84] NAV [270.74] Expense Ratio [0.09%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$83.01] NAV [83.89] Expense Ratio [0.08%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$140.82] NAV [140.03] Expense Ratio [0.04%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$103.98] NAV [104.23] Expense Ratio [0.05%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$192.92] NAV [199.04] Expense Ratio [0.44%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$164.88] NAV [162.58] Expense Ratio [0.20%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Jul_08</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$37.90] NAV [36.31] Expense Ratio [0.39%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$50.13] NAV [47.44] Expense Ratio [0.70%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$65.35] NAV [249.77] Expense Ratio [0.15%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$21.89] NAV [23.27] Expense Ratio [0.68%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$31.08] NAV [29.16] Expense Ratio [0.75%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$24.05] NAV [23.38] Expense Ratio [0.40%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$175.61] NAV [NA] Expense Ratio [0.20%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$275.36] NAV [270.74] Expense Ratio [0.09%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$84.20] NAV [83.89] Expense Ratio [0.08%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$142.79] NAV [140.03] Expense Ratio [0.04%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$105.19] NAV [104.23] Expense Ratio [0.05%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$193.63] NAV [199.04] Expense Ratio [0.44%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$244.60] NAV [244.16] Expense Ratio [0.17%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$168.25] NAV [162.58] Expense Ratio [0.20%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Jul_18</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$38.30] NAV [36.51] Expense Ratio [0.39%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$50.56] NAV [48.35] Expense Ratio [0.70%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$65.93] NAV [63.17] Expense Ratio [0.15%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$21.97] NAV [22.09] Expense Ratio [0.68%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$30.99] NAV [29.06] Expense Ratio [0.75%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$23.87] NAV [23.77] Expense Ratio [0.40%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$179.93] NAV [NA] Expense Ratio [0.20%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$281.06] NAV [271.15] Expense Ratio [0.09%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$85.07] NAV [83.00] Expense Ratio [0.08%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$145.45] NAV [140.39] Expense Ratio [0.04%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$107.26] NAV [103.78] Expense Ratio [0.05%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$203.21] NAV [192.41] Expense Ratio [0.44%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$252.03] NAV [242.57] Expense Ratio [0.17%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$167.98] NAV [163.72] Expense Ratio [0.20%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Jul_20</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$38.43] NAV [36.51] Expense Ratio [0.39%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$50.65] NAV [48.35] Expense Ratio [0.70%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$66.23] NAV [63.17] Expense Ratio [0.15%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$21.96] NAV [22.09] Expense Ratio [0.68%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$31.24] NAV [29.06] Expense Ratio [0.75%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$24.00] NAV [23.77] Expense Ratio [0.40%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$178.99] NAV [NA] Expense Ratio [0.20%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$279.72] NAV [271.15] Expense Ratio [0.09%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$84.63] NAV [83.00] Expense Ratio [0.08%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$144.84] NAV [140.39] Expense Ratio [0.04%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$106.65] NAV [103.78] Expense Ratio [0.05%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$202.89] NAV [192.41] Expense Ratio [0.44%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$250.44] NAV [242.57] Expense Ratio [0.17%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$168.48] NAV [163.72] Expense Ratio [0.20%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Jul_24</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$38.01] NAV [36.51] Expense Ratio [0.39%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$49.84] NAV [48.35] Expense Ratio [0.70%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$65.48] NAV [63.17] Expense Ratio [0.15%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$22.04] NAV [22.09] Expense Ratio [0.68%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$30.19] NAV [29.06] Expense Ratio [0.75%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$23.85] NAV [23.77] Expense Ratio [0.40%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$180.30] NAV [NA] Expense Ratio [0.20%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$281.55] NAV [271.15] Expense Ratio [0.09%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$85.18] NAV [83.00] Expense Ratio [0.08%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$145.39] NAV [140.39] Expense Ratio [0.04%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$107.51] NAV [103.78] Expense Ratio [0.05%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$202.15] NAV [192.41] Expense Ratio [0.44%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$252.21] NAV [242.57] Expense Ratio [0.17%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$166.91] NAV [163.72] Expense Ratio [0.20%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Jul_29</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$37.42] NAV [36.51] Expense Ratio [0.39%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$48.96] NAV [48.35] Expense Ratio [0.70%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$65.31] NAV [63.17] Expense Ratio [0.15%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$22.66] NAV [22.09] Expense Ratio [0.68%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$29.01] NAV [29.06] Expense Ratio [0.75%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$23.98] NAV [23.77] Expense Ratio [0.40%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$177.62] NAV [NA] Expense Ratio [0.20%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$281.46] NAV [271.15] Expense Ratio [0.09%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$85.88] NAV [83.00] Expense Ratio [0.08%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$145.22] NAV [140.39] Expense Ratio [0.04%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$108.31] NAV [103.78] Expense Ratio [0.05%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$203.58] NAV [192.41] Expense Ratio [0.44%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$254.26] NAV [242.57] Expense Ratio [0.17%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$165.26] NAV [163.72] Expense Ratio [0.20%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Aug_01</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$37.32] NAV [36.51] Expense Ratio [0.39%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$48.92] NAV [48.35] Expense Ratio [0.70%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$65.74] NAV [63.17] Expense Ratio [0.15%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$22.30] NAV [22.09] Expense Ratio [0.68%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$29.35] NAV [29.06] Expense Ratio [0.75%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$24.10] NAV [23.77] Expense Ratio [0.40%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$177.12] NAV [NA] Expense Ratio [0.20%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$280.89] NAV [271.15] Expense Ratio [0.09%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$85.90] NAV [83.00] Expense Ratio [0.08%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$144.92] NAV [140.39] Expense Ratio [0.04%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$108.14] NAV [103.78] Expense Ratio [0.05%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$204.77] NAV [192.41] Expense Ratio [0.44%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$253.11] NAV [242.57] Expense Ratio [0.17%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$165.76] NAV [163.72] Expense Ratio [0.20%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Aug_05</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$37.79] NAV [37.28] Expense Ratio [0.39%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$49.20] NAV [48.78] Expense Ratio [0.70%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$66.29] NAV [65.53] Expense Ratio [0.15%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$22.22] NAV [22.30] Expense Ratio [0.68%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$29.32] NAV [29.36] Expense Ratio [0.75%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$24.10] NAV [24.23] Expense Ratio [0.40%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$180.08] NAV [NA] Expense Ratio [0.20%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$283.62] NAV [281.20] Expense Ratio [0.09%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$86.64] NAV [86.44] Expense Ratio [0.08%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$146.27] NAV [145.09] Expense Ratio [0.04%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$109.13] NAV [108.64] Expense Ratio [0.05%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$203.78] NAV [205.87] Expense Ratio [0.44%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$254.39] NAV [253.94] Expense Ratio [0.17%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$166.39] NAV [165.97] Expense Ratio [0.20%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Aug_12</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$38.67] NAV [37.28] Expense Ratio [0.39%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$50.20] NAV [48.78] Expense Ratio [0.70%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$66.94] NAV [65.53] Expense Ratio [0.15%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$30.76] NAV [29.36] Expense Ratio [0.75%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$23.84] NAV [24.23] Expense Ratio [0.40%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$180.52] NAV [NA] Expense Ratio [0.20%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$283.16] NAV [281.20] Expense Ratio [0.09%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$86.08] NAV [86.44] Expense Ratio [0.08%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$146.25] NAV [145.09] Expense Ratio [0.04%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$108.78] NAV [108.64] Expense Ratio [0.05%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$202.87] NAV [205.87] Expense Ratio [0.43%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$253.30] NAV [253.94] Expense Ratio [0.17%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$167.52] NAV [165.97] Expense Ratio [0.19%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Aug_14</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$38.66] NAV [37.28] Expense Ratio [0.39%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [0] NAV [UN] Expense Ratio [UN] Risk [UN]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$67.35] NAV [65.53] Expense Ratio [0.15%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$21.96] NAV [22.30] Expense Ratio [0.68%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$30.97] NAV [29.36] Expense Ratio [0.75%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$23.95] NAV [24.23] Expense Ratio [0.40%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$181.45] NAV [NA] Expense Ratio [0.20%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$283.70] NAV [281.20] Expense Ratio [0.09%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$86.14] NAV [86.44] Expense Ratio [0.08%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$146.65] NAV [145.09] Expense Ratio [0.04%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$108.87] NAV [108.64] Expense Ratio [0.05%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$204.27] NAV [205.87] Expense Ratio [0.43%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$253.21] NAV [253.94] Expense Ratio [0.17%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$168.23] NAV [165.97] Expense Ratio [0.19%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Aug_18</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$38.50] NAV [37.28] Expense Ratio [0.39%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$50.42] NAV [48.78] Expense Ratio [0.70%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$67.65] NAV [65.53] Expense Ratio [0.15%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$21.82] NAV [22.30] Expense Ratio [0.68%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$30.88] NAV [29.36] Expense Ratio [0.75%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$24.23] NAV [24.23] Expense Ratio [0.40%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$179.86] NAV [NA] Expense Ratio [0.20%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$284.93] NAV [281.20] Expense Ratio [0.09%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$87.33] NAV [86.44] Expense Ratio [0.08%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$147.17] NAV [145.09] Expense Ratio [0.04%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$109.89] NAV [108.64] Expense Ratio [0.05%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$205.55] NAV [205.87] Expense Ratio [0.43%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$256.51] NAV [253.94] Expense Ratio [0.17%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$168.35] NAV [165.97] Expense Ratio [0.19%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Aug_21</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$39.08] NAV [37.28] Expense Ratio [0.39%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$51.17] NAV [48.78] Expense Ratio [0.70%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$68.53] NAV [65.53] Expense Ratio [0.15%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$22.08] NAV [22.30] Expense Ratio [0.68%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$31.69] NAV [29.36] Expense Ratio [0.75%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$24.42] NAV [24.23] Expense Ratio [0.40%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$180.36] NAV [NA] Expense Ratio [0.20%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$286.27] NAV [281.20] Expense Ratio [0.09%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$87.62] NAV [86.44] Expense Ratio [0.08%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$148.00] NAV [145.09] Expense Ratio [0.04%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$110.35] NAV [108.64] Expense Ratio [0.05%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$208.34] NAV [205.87] Expense Ratio [0.43%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$258.07] NAV [253.94] Expense Ratio [0.17%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$170.70] NAV [165.97] Expense Ratio [0.19%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Aug_26</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$39.81] NAV [37.28] Expense Ratio [0.39%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$51.91] NAV [48.78] Expense Ratio [0.70%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$69.02] NAV [65.53] Expense Ratio [0.15%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$22.27] NAV [22.30] Expense Ratio [0.68%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$32.36] NAV [29.36] Expense Ratio [0.75%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$24.28] NAV [24.23] Expense Ratio [0.40%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$182.48] NAV [NA] Expense Ratio [0.20%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$287.52] NAV [281.20] Expense Ratio [0.09%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$87.44] NAV [86.44] Expense Ratio [0.08%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$148.68] NAV [145.09] Expense Ratio [0.04%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$110.33] NAV [108.64] Expense Ratio [0.05%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$206.71] NAV [205.87] Expense Ratio [0.43%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$257.85] NAV [253.94] Expense Ratio [0.17%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$171.54] NAV [165.97] Expense Ratio [0.19%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Sep_02</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$40.72] NAV [37.28] Expense Ratio [0.39%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$53.13] NAV [48.78] Expense Ratio [0.70%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$69.93] NAV [65.53] Expense Ratio [0.15%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$23.05] NAV [22.30] Expense Ratio [0.68%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$34.45] NAV [29.36] Expense Ratio [0.75%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$24.41] NAV [24.23] Expense Ratio [0.40%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$186.65] NAV [NA] Expense Ratio [0.20%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$290.27] NAV [281.20] Expense Ratio [0.09%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$87.41] NAV [86.44] Expense Ratio [0.08%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$150.07] NAV [145.09] Expense Ratio [0.04%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$110.72] NAV [108.64] Expense Ratio [0.05%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$207.47] NAV [205.87] Expense Ratio [0.43%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$259.85] NAV [253.94] Expense Ratio [0.17%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$173.09] NAV [165.97] Expense Ratio [0.19%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Sep_11</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$40.51] NAV [37.28] Expense Ratio [0.39%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$52.79] NAV [48.78] Expense Ratio [0.70%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$69.12] NAV [65.53] Expense Ratio [0.15%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$32.84] NAV [29.36] Expense Ratio [0.75%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$24.58] NAV [24.23] Expense Ratio [0.40%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$183.12] NAV [NA] Expense Ratio [0.20%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$289.13] NAV [281.20] Expense Ratio [0.09%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$87.45] NAV [86.44] Expense Ratio [0.08%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$149.40] NAV [145.09] Expense Ratio [0.04%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$110.75] NAV [108.64] Expense Ratio [0.05%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$209.66] NAV [205.87] Expense Ratio [0.43%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$260.03] NAV [253.94] Expense Ratio [0.17%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$171.01] NAV [165.97] Expense Ratio [0.19%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Sep_24</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$39.85] NAV [40.71] Expense Ratio [0.39%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$51.99] NAV [53.09] Expense Ratio [0.70%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$67.74] NAV [69.88] Expense Ratio [0.15%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$23.07] NAV [23.14] Expense Ratio [0.68%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$32.92] NAV [34.44] Expense Ratio [0.75%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$23.96] NAV [24.35] Expense Ratio [0.40%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$183.89] NAV [NA] Expense Ratio [0.20%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$291.08] NAV [290.30] Expense Ratio [0.09%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$88.61] NAV [87.44] Expense Ratio [0.08%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$150.61] NAV [150.10] Expense Ratio [0.04%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$112.52] NAV [110.77] Expense Ratio [0.05%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$213.69] NAV [207.55] Expense Ratio [0.43%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$265.42] NAV [259.84] Expense Ratio [0.17%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$169.77] NAV [173.13] Expense Ratio [0.19%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Oct_01</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$39.03] NAV [40.71] Expense Ratio [0.39%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$51.51] NAV [53.09] Expense Ratio [0.70%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$66.43] NAV [69.88] Expense Ratio [0.15%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$23.10] NAV [23.14] Expense Ratio [0.68%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$32.61] NAV [34.44] Expense Ratio [0.75%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$23.41] NAV [24.35] Expense Ratio [0.40%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$186.17] NAV [NA] Expense Ratio [0.20%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$291.70] NAV [290.30] Expense Ratio [0.09%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$87.48] NAV [87.44] Expense Ratio [0.08%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$149.88] NAV [150.10] Expense Ratio [0.04%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$111.15] NAV [110.77] Expense Ratio [0.05%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$217.16] NAV [207.55] Expense Ratio [0.43%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$266.47] NAV [259.84] Expense Ratio [0.17%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$166.29] NAV [173.13] Expense Ratio [0.19%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Oct_06</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$37.67] NAV [40.71] Expense Ratio [0.39%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$49.43] NAV [53.09] Expense Ratio [0.70%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$64.32] NAV [69.88] Expense Ratio [0.15%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$22.10] NAV [23.14] Expense Ratio [0.68%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$30.30] NAV [34.44] Expense Ratio [0.75%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$22.95] NAV [24.35] Expense Ratio [0.40%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$180.15] NAV [NA] Expense Ratio [0.20%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$287.81] NAV [290.30] Expense Ratio [0.09%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$87.55] NAV [87.44] Expense Ratio [0.08%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$147.65] NAV [150.10] Expense Ratio [0.04%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$110.98] NAV [110.77] Expense Ratio [0.05%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$215.10] NAV [207.55] Expense Ratio [0.43%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$264.32] NAV [259.84] Expense Ratio [0.17%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$162.16] NAV [173.13] Expense Ratio [0.19%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Oct_22</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$35.45] NAV [39.86] Expense Ratio [0.39%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$46.28] NAV [52.23] Expense Ratio [0.70%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$60.73] NAV [67.42] Expense Ratio [0.15%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$20.24] NAV [22.92] Expense Ratio [0.68%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$28.14] NAV [33.37] Expense Ratio [0.75%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$22.82] NAV [23.95] Expense Ratio [0.41%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$174.34] NAV [NA] Expense Ratio [0.20%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$275.42] NAV [290.60] Expense Ratio [0.09%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$83.92] NAV [87.09] Expense Ratio [0.08%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$140.96] NAV [149.64] Expense Ratio [0.04%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$106.26] NAV [110.66] Expense Ratio [0.05%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$201.04] NAV [216.47] Expense Ratio [0.43%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$252.88] NAV [264.36] Expense Ratio [0.17%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$153.06] NAV [168.52] Expense Ratio [0.19%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Nov_04</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$35.90] NAV [39.86] Expense Ratio [0.39%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$46.58] NAV [52.23] Expense Ratio [0.70%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$61.66] NAV [67.42] Expense Ratio [0.15%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$20.43] NAV [22.92] Expense Ratio [0.68%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$30.00] NAV [33.37] Expense Ratio [0.75%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$23.09] NAV [23.95] Expense Ratio [0.41%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$169.38] NAV [NA] Expense Ratio [0.20%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$271.80] NAV [290.60] Expense Ratio [0.09%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$83.63] NAV [87.09] Expense Ratio [0.08%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$139.56] NAV [149.64] Expense Ratio [0.04%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$105.67] NAV [110.66] Expense Ratio [0.05%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$196.04] NAV [216.47] Expense Ratio [0.43%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$252.46] NAV [264.36] Expense Ratio [0.17%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$153.94] NAV [168.52] Expense Ratio [0.19%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Nov_11</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$35.48] NAV [34.73] Expense Ratio [0.39%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$46.43] NAV [45.24] Expense Ratio [0.70%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$61.45] NAV [59.96] Expense Ratio [0.15%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$19.95] NAV [19.78] Expense Ratio [0.68%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$29.87] NAV [27.64] Expense Ratio [0.75%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$23.43] NAV [23.00] Expense Ratio [0.41%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$171.52] NAV [NA] Expense Ratio [0.20%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$277.82] NAV [270.72] Expense Ratio [0.09%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$85.75] NAV [83.26] Expense Ratio [0.08%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$142.17] NAV [138.58] Expense Ratio [0.04%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$108.38] NAV [105.17] Expense Ratio [0.05%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$200.95] NAV [191.72] Expense Ratio [0.43%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$260.22] NAV [251.01] Expense Ratio [0.17%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$154.15] NAV [150.21] Expense Ratio [0.19%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Nov_19</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$33.36] NAV [34.73] Expense Ratio [0.39%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$44.22] NAV [45.24] Expense Ratio [0.70%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$59.63] NAV [59.96] Expense Ratio [0.15%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$19.06] NAV [19.78] Expense Ratio [0.68%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$27.94] NAV [27.64] Expense Ratio [0.75%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$23.16] NAV [23.00] Expense Ratio [0.41%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$161.99] NAV [NA] Expense Ratio [0.20%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$269.12] NAV [270.72] Expense Ratio [0.09%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$84.93] NAV [83.26] Expense Ratio [0.08%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$137.75] NAV [138.58] Expense Ratio [0.04%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$106.82] NAV [105.17] Expense Ratio [0.05%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$189.33] NAV [191.72] Expense Ratio [0.43%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$249.86] NAV [251.01] Expense Ratio [0.17%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$148.92] NAV [150.21] Expense Ratio [0.19%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Nov_24</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$33.59] NAV [34.73] Expense Ratio [0.39%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$44.05] NAV [45.24] Expense Ratio [0.70%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$59.33] NAV [59.96] Expense Ratio [0.15%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$18.80] NAV [19.78] Expense Ratio [0.68%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$28.32] NAV [27.64] Expense Ratio [0.75%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$23.10] NAV [23.00] Expense Ratio [0.41%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$159.21] NAV [NA] Expense Ratio [0.20%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$263.32] NAV [270.72] Expense Ratio [0.09%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$82.85] NAV [83.26] Expense Ratio [0.08%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$135.13] NAV [138.58] Expense Ratio [0.04%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$104.29] NAV [105.17] Expense Ratio [0.05%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$188.39] NAV [191.72] Expense Ratio [0.43%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$242.81] NAV [251.01] Expense Ratio [0.17%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$147.94] NAV [150.21] Expense Ratio [0.19%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Dec_02</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$34.88] NAV [34.73] Expense Ratio [0.39%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$45.68] NAV [45.24] Expense Ratio [0.70%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$61.52] NAV [59.96] Expense Ratio [0.15%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$19.71] NAV [19.78] Expense Ratio [0.68%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$29.79] NAV [27.64] Expense Ratio [0.75%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$23.35] NAV [23.00] Expense Ratio [0.41%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$169.37] NAV [NA] Expense Ratio [0.20%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$275.69] NAV [270.72] Expense Ratio [0.09%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$86.22] NAV [83.26] Expense Ratio [0.08%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$141.35] NAV [138.58] Expense Ratio [0.04%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$108.61] NAV [105.17] Expense Ratio [0.05%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$192.03] NAV [191.72] Expense Ratio [0.43%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$255.36] NAV [251.01] Expense Ratio [0.17%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$152.66] NAV [150.21] Expense Ratio [0.19%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Dec_09</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$32.76] NAV [34.92] Expense Ratio [0.39%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$42.94] NAV [45.69] Expense Ratio [0.70%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$57.77] NAV [61.46] Expense Ratio [0.15%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$18.22] NAV [19.69] Expense Ratio [0.68%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$27.90] NAV [29.79] Expense Ratio [0.75%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$23.39] NAV [23.36] Expense Ratio [0.41%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$161.38] NAV [NA] Expense Ratio [0.20%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$263.66] NAV [276.21] Expense Ratio [0.09%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$82.65] NAV [86.28] Expense Ratio [0.08%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$134.90] NAV [141.45] Expense Ratio [0.04%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$103.69] NAV [108.72] Expense Ratio [0.05%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$182.15] NAV [192.06] Expense Ratio [0.43%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$244.32] NAV [255.71] Expense Ratio [0.17%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$144.03] NAV [152.59] Expense Ratio [0.19%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Dec_16</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$31.98] NAV [34.92] Expense Ratio [0.39%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$42.00] NAV [45.69] Expense Ratio [0.70%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$56.28] NAV [61.46] Expense Ratio [0.15%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$17.66] NAV [19.69] Expense Ratio [0.68%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$27.25] NAV [29.79] Expense Ratio [0.75%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$23.03] NAV [23.36] Expense Ratio [0.41%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$160.93] NAV [NA] Expense Ratio [0.20%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$260.57] NAV [276.21] Expense Ratio [0.09%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$81.46] NAV [86.28] Expense Ratio [0.08%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$133.16] NAV [141.45] Expense Ratio [0.04%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$102.09] NAV [108.72] Expense Ratio [0.05%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$183.04] NAV [192.06] Expense Ratio [0.43%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$241.42] NAV [255.71] Expense Ratio [0.17%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$140.65] NAV [152.59] Expense Ratio [0.19%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Dec_30</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$30.46] NAV [34.92] Expense Ratio [0.39%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$39.76] NAV [45.69] Expense Ratio [0.70%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$53.58] NAV [61.46] Expense Ratio [0.15%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$16.73] NAV [19.69] Expense Ratio [0.68%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$23.35] NAV [29.79] Expense Ratio [0.75%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$21.59] NAV [23.36] Expense Ratio [0.41%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$152.97] NAV [NA] Expense Ratio [0.20%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$247.73] NAV [276.21] Expense Ratio [0.09%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$77.32] NAV [86.28] Expense Ratio [0.08%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$126.43] NAV [141.45] Expense Ratio [0.04%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$96.99] NAV [108.72] Expense Ratio [0.05%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$170.85] NAV [192.06] Expense Ratio [0.43%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$230.48] NAV [255.71] Expense Ratio [0.17%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$132.86] NAV [152.59] Expense Ratio [0.19%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Jan_07</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$32.21] NAV [30.93] Expense Ratio [0.39%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$41.72] NAV [40.17] Expense Ratio [0.70%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$55.27] NAV [53.98] Expense Ratio [0.15%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$17.17] NAV [16.87] Expense Ratio [0.68%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$27.32] NAV [24.04] Expense Ratio [0.75%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$22.20] NAV [21.28] Expense Ratio [0.41%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$158.09] NAV [NA] Expense Ratio [0.20%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$254.29] NAV [249.92] Expense Ratio [0.09%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$79.31] NAV [77.93] Expense Ratio [0.08%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$130.20] NAV [127.56] Expense Ratio [0.04%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$99.53] NAV [97.84] Expense Ratio [0.05%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$175.17] NAV [172.98] Expense Ratio [0.43%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$235.36] NAV [233.16] Expense Ratio [0.17%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$139.63] NAV [134.01] Expense Ratio [0.19%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Jan_13</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$33.16] NAV [30.93] Expense Ratio [0.39%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$42.93] NAV [40.17] Expense Ratio [0.70%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$57.07] NAV [53.98] Expense Ratio [0.15%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$17.48] NAV [16.87] Expense Ratio [0.68%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$28.08] NAV [24.04] Expense Ratio [0.75%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$22.50] NAV [21.28] Expense Ratio [0.41%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$160.69] NAV [NA] Expense Ratio [0.20%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$258.81] NAV [249.92] Expense Ratio [0.09%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$80.42] NAV [77.93] Expense Ratio [0.08%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$132.84] NAV [127.56] Expense Ratio [0.04%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$101.00] NAV [97.84] Expense Ratio [0.05%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$181.80] NAV [172.98] Expense Ratio [0.43%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$239.83] NAV [233.16] Expense Ratio [0.17%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$143.68] NAV [134.01] Expense Ratio [0.19%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Jan_21</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$34.06] NAV [30.93] Expense Ratio [0.39%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$43.95] NAV [40.17] Expense Ratio [0.70%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$58.36] NAV [53.98] Expense Ratio [0.15%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$18.37] NAV [16.87] Expense Ratio [0.68%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$28.73] NAV [24.04] Expense Ratio [0.75%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$22.77] NAV [21.28] Expense Ratio [0.41%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$164.95] NAV [NA] Expense Ratio [0.20%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$266.00] NAV [249.92] Expense Ratio [0.09%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$82.00] NAV [77.93] Expense Ratio [0.08%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$136.42] NAV [127.56] Expense Ratio [0.04%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$103.79] NAV [97.84] Expense Ratio [0.05%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$187.15] NAV [172.98] Expense Ratio [0.43%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$246.59] NAV [233.16] Expense Ratio [0.17%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$147.18] NAV [134.01] Expense Ratio [0.19%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>IIF</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$20.20] NAV [NA] Expense Ratio [1.43%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>SRET</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$14.67] NAV [13.59] Expense Ratio [0.58%] Risk [Low]</t>
+  </si>
+  <si>
+    <t>SPTM</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$33.07] NAV [30.87] Expense Ratio [0.03%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>SPEM</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$34.40] NAV [32.43] Expense Ratio [0.11%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>EMFM</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$20.75] NAV [19.70] Expense Ratio [0.56%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>IEMG</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$49.99] NAV [47.21] Expense Ratio [0.14%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>XES</t>
+  </si>
+  <si>
+    <t>Rank [Sell]  Price [$11.12] NAV [9.00] Expense Ratio [0.35%] Risk [High]</t>
+  </si>
+  <si>
+    <t>XLK</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$65.21] NAV [61.98] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>XLF</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$25.96] NAV [23.82] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>XLRE</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$32.61] NAV [31.00] Expense Ratio [0.13%] Risk [High]</t>
+  </si>
+  <si>
+    <t>XLE</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$63.76] NAV [57.33] Expense Ratio [0.13%] Risk [High]</t>
+  </si>
+  <si>
+    <t>XLC</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$44.91] NAV [41.26] Expense Ratio [0.13%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>XLV</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$89.92] NAV [86.43] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>XLP</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$52.35] NAV [50.78] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>XLY</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$106.69] NAV [98.99] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>XLI</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$70.05] NAV [64.43] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>XLB</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$53.38] NAV [50.53] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>XLU</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$53.05] NAV [52.92] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>SPDV</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$25.24] NAV [23.50] Expense Ratio [0.29%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>MJ</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$30.92] NAV [25.15] Expense Ratio [0.75%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>SCHD</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$49.15] NAV [46.98] Expense Ratio [0.07%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>VT</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$69.64] NAV [65.43] Expense Ratio [0.10%] Risk [Low]</t>
+  </si>
+  <si>
+    <t>SOXX</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$166.47] NAV [NA] Expense Ratio [0.47%] Risk [High]</t>
+  </si>
+  <si>
+    <t>SOXL</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$96.80] NAV [83.40] Expense Ratio [1.02%] Risk [High]</t>
+  </si>
+  <si>
+    <t>IHI</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$210.75] NAV [199.77] Expense Ratio [0.43%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>KBE</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$42.60] NAV [37.34] Expense Ratio [0.35%] Risk [High]</t>
+  </si>
+  <si>
+    <t>EFA</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$62.05] NAV [58.91] Expense Ratio [0.31%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>VOO</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$244.48] NAV [229.68] Expense Ratio [0.04%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>IVV</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$267.62] NAV [251.40] Expense Ratio [0.04%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>IBB</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$110.31] NAV [NA] Expense Ratio [0.47%] Risk [High]</t>
+  </si>
+  <si>
+    <t>EEM</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$41.60] NAV [39.17] Expense Ratio [0.69%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>SLY</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$65.56] NAV [59.95] Expense Ratio [0.15%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>MDY</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$330.29] NAV [302.54] Expense Ratio [0.24%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>MDYG</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$49.42] NAV [45.85] Expense Ratio [0.15%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>AHSAX</t>
+  </si>
+  <si>
+    <t>Jan_27</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$43.82] NAV [40.17] Expense Ratio [0.70%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$58.25] NAV [53.98] Expense Ratio [0.15%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$18.51] NAV [16.87] Expense Ratio [0.68%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$28.19] NAV [24.04] Expense Ratio [0.75%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$22.90] NAV [21.28] Expense Ratio [0.41%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$165.15] NAV [NA] Expense Ratio [0.20%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$265.78] NAV [249.92] Expense Ratio [0.09%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$81.59] NAV [77.93] Expense Ratio [0.08%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$136.47] NAV [127.56] Expense Ratio [0.04%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$103.60] NAV [97.84] Expense Ratio [0.05%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$188.62] NAV [172.98] Expense Ratio [0.43%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$247.39] NAV [233.16] Expense Ratio [0.17%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$147.26] NAV [134.01] Expense Ratio [0.19%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$19.27] NAV [NA] Expense Ratio [1.43%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$14.83] NAV [13.59] Expense Ratio [0.58%] Risk [Low]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$33.10] NAV [30.87] Expense Ratio [0.03%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$34.68] NAV [32.43] Expense Ratio [0.11%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$20.85] NAV [19.70] Expense Ratio [0.56%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$50.69] NAV [47.21] Expense Ratio [0.14%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Sell]  Price [$11.13] NAV [9.00] Expense Ratio [0.35%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$65.93] NAV [61.98] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$26.00] NAV [23.82] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$33.13] NAV [31.00] Expense Ratio [0.13%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$62.94] NAV [57.33] Expense Ratio [0.13%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$44.60] NAV [41.26] Expense Ratio [0.13%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$88.92] NAV [86.43] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$51.75] NAV [50.78] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$107.03] NAV [98.99] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$70.07] NAV [64.43] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$53.12] NAV [50.53] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$53.32] NAV [52.92] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$25.16] NAV [23.50] Expense Ratio [0.29%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$32.00] NAV [25.15] Expense Ratio [0.75%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$49.10] NAV [46.98] Expense Ratio [0.07%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$69.77] NAV [65.43] Expense Ratio [0.10%] Risk [Low]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$173.79] NAV [NA] Expense Ratio [0.47%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$108.92] NAV [83.40] Expense Ratio [1.02%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$211.25] NAV [199.77] Expense Ratio [0.43%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$42.91] NAV [37.34] Expense Ratio [0.35%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$62.17] NAV [58.91] Expense Ratio [0.31%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$244.32] NAV [229.68] Expense Ratio [0.04%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$267.50] NAV [251.40] Expense Ratio [0.04%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$109.44] NAV [NA] Expense Ratio [0.47%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$42.19] NAV [39.17] Expense Ratio [0.69%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$65.54] NAV [59.95] Expense Ratio [0.15%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$330.99] NAV [302.54] Expense Ratio [0.24%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$49.65] NAV [45.85] Expense Ratio [0.15%] Risk [Med]</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>Jun_24</t>
-  </si>
-  <si>
-    <t>Jun_26</t>
-  </si>
-  <si>
-    <t>Rank [Buy]  Price [$37.20] NAV [36.31] Expense Ratio [0.39%] Risk [High]</t>
-  </si>
-  <si>
-    <t>Rank [Strong Buy]  Price [$49.16] NAV [47.44] Expense Ratio [0.70%] Risk [High]</t>
-  </si>
-  <si>
-    <t>Rank [Strong Buy]  Price [$63.96] NAV [62.44] Expense Ratio [0.15%] Risk [Med]</t>
-  </si>
-  <si>
-    <t>Rank [UN]  Price [$22.28] NAV [23.27] Expense Ratio [0.68%] Risk [NA]</t>
-  </si>
-  <si>
-    <t>Rank [UN]  Price [$29.85] NAV [29.16] Expense Ratio [0.75%] Risk [High]</t>
-  </si>
-  <si>
-    <t>Rank [Hold]  Price [$23.91] NAV [23.38] Expense Ratio [0.40%] Risk [Med]</t>
-  </si>
-  <si>
-    <t>Rank [Strong Buy]  Price [$172.07] NAV [NA] Expense Ratio [0.20%] Risk [Med]</t>
-  </si>
-  <si>
-    <t>Rank [Buy]  Price [$271.58] NAV [270.74] Expense Ratio [0.09%] Risk [Med]</t>
-  </si>
-  <si>
-    <t>Rank [Buy]  Price [$83.08] NAV [83.89] Expense Ratio [0.08%] Risk [Med]</t>
-  </si>
-  <si>
-    <t>Rank [Hold]  Price [$140.77] NAV [140.03] Expense Ratio [0.04%] Risk [Med]</t>
-  </si>
-  <si>
-    <t>Rank [Hold]  Price [$103.97] NAV [104.23] Expense Ratio [0.05%] Risk [Med]</t>
-  </si>
-  <si>
-    <t>Rank [Buy]  Price [$192.27] NAV [199.04] Expense Ratio [0.44%] Risk [Med]</t>
-  </si>
-  <si>
-    <t>Rank [Buy]  Price [$242.67] NAV [244.16] Expense Ratio [0.17%] Risk [Med]</t>
-  </si>
-  <si>
-    <t>Rank [Buy]  Price [$166.08] NAV [162.58] Expense Ratio [0.20%] Risk [Med]</t>
-  </si>
-  <si>
-    <t>Jun_27</t>
-  </si>
-  <si>
-    <t>Rank [Buy]  Price [$36.17] NAV [36.31] Expense Ratio [0.39%] Risk [High]</t>
-  </si>
-  <si>
-    <t>Rank [Strong Buy]  Price [$47.99] NAV [47.44] Expense Ratio [0.70%] Risk [High]</t>
-  </si>
-  <si>
-    <t>Rank [Strong Buy]  Price [$62.92] NAV [249.77] Expense Ratio [0.15%] Risk [Med]</t>
-  </si>
-  <si>
-    <t>Rank [UN]  Price [$21.96] NAV [23.27] Expense Ratio [0.68%] Risk [NA]</t>
-  </si>
-  <si>
-    <t>Rank [UN]  Price [$28.90] NAV [29.16] Expense Ratio [0.75%] Risk [High]</t>
-  </si>
-  <si>
-    <t>Rank [Strong Buy]  Price [$169.73] NAV [NA] Expense Ratio [0.20%] Risk [Med]</t>
-  </si>
-  <si>
-    <t>Rank [Buy]  Price [$269.80] NAV [270.74] Expense Ratio [0.09%] Risk [Med]</t>
-  </si>
-  <si>
-    <t>Rank [Buy]  Price [$82.66] NAV [83.89] Expense Ratio [0.08%] Risk [Med]</t>
-  </si>
-  <si>
-    <t>Rank [Hold]  Price [$139.46] NAV [140.03] Expense Ratio [0.04%] Risk [Med]</t>
-  </si>
-  <si>
-    <t>Rank [Hold]  Price [$103.34] NAV [104.23] Expense Ratio [0.05%] Risk [Med]</t>
-  </si>
-  <si>
-    <t>Rank [Buy]  Price [$190.98] NAV [199.04] Expense Ratio [0.44%] Risk [Med]</t>
-  </si>
-  <si>
-    <t>Rank [Buy]  Price [$241.28] NAV [244.16] Expense Ratio [0.17%] Risk [Med]</t>
-  </si>
-  <si>
-    <t>Rank [Buy]  Price [$163.49] NAV [162.58] Expense Ratio [0.20%] Risk [Med]</t>
+    <t>Jan_31</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$34.37] NAV [30.93] Expense Ratio [0.39%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$44.10] NAV [40.17] Expense Ratio [0.70%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$58.90] NAV [53.98] Expense Ratio [0.15%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$18.46] NAV [16.87] Expense Ratio [0.68%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$28.22] NAV [24.04] Expense Ratio [0.75%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$23.29] NAV [21.28] Expense Ratio [0.41%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$168.16] NAV [NA] Expense Ratio [0.20%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$269.81] NAV [249.92] Expense Ratio [0.09%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$82.75] NAV [77.93] Expense Ratio [0.08%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$138.53] NAV [127.56] Expense Ratio [0.04%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$104.76] NAV [97.84] Expense Ratio [0.05%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$194.56] NAV [172.98] Expense Ratio [0.43%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$250.12] NAV [233.16] Expense Ratio [0.17%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$148.93] NAV [134.01] Expense Ratio [0.19%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$19.43] NAV [NA] Expense Ratio [1.43%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$15.23] NAV [13.59] Expense Ratio [0.58%] Risk [Low]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$33.62] NAV [30.87] Expense Ratio [0.03%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$35.45] NAV [32.43] Expense Ratio [0.11%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$21.01] NAV [19.70] Expense Ratio [0.56%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$51.70] NAV [47.21] Expense Ratio [0.14%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$66.28] NAV [61.98] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$25.94] NAV [23.82] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$34.33] NAV [31.00] Expense Ratio [0.13%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$63.79] NAV [57.33] Expense Ratio [0.13%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$46.13] NAV [41.26] Expense Ratio [0.13%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$90.67] NAV [86.43] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$53.39] NAV [50.78] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$108.77] NAV [98.99] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$71.77] NAV [64.43] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$53.34] NAV [50.53] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$54.76] NAV [52.92] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$25.52] NAV [23.50] Expense Ratio [0.29%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$35.16] NAV [25.15] Expense Ratio [0.75%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$49.81] NAV [46.98] Expense Ratio [0.07%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$70.69] NAV [65.43] Expense Ratio [0.10%] Risk [Low]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$172.69] NAV [NA] Expense Ratio [0.47%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$106.43] NAV [83.40] Expense Ratio [1.02%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$215.42] NAV [199.77] Expense Ratio [0.43%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$42.63] NAV [37.34] Expense Ratio [0.35%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$62.68] NAV [58.91] Expense Ratio [0.31%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$248.01] NAV [229.68] Expense Ratio [0.04%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$271.55] NAV [251.40] Expense Ratio [0.04%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$109.69] NAV [NA] Expense Ratio [0.47%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$43.07] NAV [39.17] Expense Ratio [0.69%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$66.30] NAV [59.95] Expense Ratio [0.15%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$333.79] NAV [302.54] Expense Ratio [0.24%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$50.11] NAV [45.85] Expense Ratio [0.15%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Feb_03</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$29.83] NAV [30.93] Expense Ratio [0.39%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$29.83] NAV [40.17] Expense Ratio [0.70%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$29.83] NAV [53.98] Expense Ratio [0.15%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$29.83] NAV [16.87] Expense Ratio [0.68%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$29.83] NAV [24.04] Expense Ratio [0.75%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$29.83] NAV [21.28] Expense Ratio [0.41%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$29.83] NAV [NA] Expense Ratio [0.20%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$29.83] NAV [249.92] Expense Ratio [0.09%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$29.83] NAV [77.93] Expense Ratio [0.08%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$29.83] NAV [127.56] Expense Ratio [0.04%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$29.83] NAV [97.84] Expense Ratio [0.05%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$29.83] NAV [172.98] Expense Ratio [0.43%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$29.83] NAV [233.16] Expense Ratio [0.17%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$29.83] NAV [134.01] Expense Ratio [0.19%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$29.83] NAV [NA] Expense Ratio [1.43%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$29.83] NAV [13.59] Expense Ratio [0.58%] Risk [Low]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$29.83] NAV [30.87] Expense Ratio [0.03%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$29.83] NAV [32.43] Expense Ratio [0.11%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$29.83] NAV [19.70] Expense Ratio [0.56%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$29.83] NAV [47.21] Expense Ratio [0.14%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Sell]  Price [$29.83] NAV [9.00] Expense Ratio [0.35%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$29.83] NAV [61.98] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$29.83] NAV [23.82] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$29.83] NAV [31.00] Expense Ratio [0.13%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$29.83] NAV [57.33] Expense Ratio [0.13%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$29.83] NAV [41.26] Expense Ratio [0.13%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$29.83] NAV [86.43] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$29.83] NAV [50.78] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$29.83] NAV [98.99] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$29.83] NAV [64.43] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$29.83] NAV [50.53] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$29.83] NAV [52.92] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$29.83] NAV [23.50] Expense Ratio [0.29%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$29.83] NAV [25.15] Expense Ratio [0.75%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$29.83] NAV [46.98] Expense Ratio [0.07%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$29.83] NAV [65.43] Expense Ratio [0.10%] Risk [Low]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$29.83] NAV [NA] Expense Ratio [0.47%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$29.83] NAV [83.40] Expense Ratio [1.02%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$29.83] NAV [199.77] Expense Ratio [0.43%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$29.83] NAV [37.34] Expense Ratio [0.35%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$29.83] NAV [58.91] Expense Ratio [0.31%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$29.83] NAV [229.68] Expense Ratio [0.04%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$29.83] NAV [251.40] Expense Ratio [0.04%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$29.83] NAV [NA] Expense Ratio [0.47%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$29.83] NAV [39.17] Expense Ratio [0.69%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$29.83] NAV [59.95] Expense Ratio [0.15%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$29.83] NAV [302.54] Expense Ratio [0.24%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$29.83] NAV [45.85] Expense Ratio [0.15%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Feb_07</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$34.51] NAV [34.45] Expense Ratio [0.39%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$44.17] NAV [44.07] Expense Ratio [0.70%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$58.78] NAV [58.87] Expense Ratio [0.15%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$18.64] NAV [18.48] Expense Ratio [0.68%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$27.66] NAV [28.18] Expense Ratio [0.75%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$23.28] NAV [23.28] Expense Ratio [0.41%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$167.51] NAV [NA] Expense Ratio [0.20%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$269.04] NAV [269.90] Expense Ratio [0.09%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$82.46] NAV [82.71] Expense Ratio [0.08%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$138.25] NAV [138.53] Expense Ratio [0.04%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$104.23] NAV [104.72] Expense Ratio [0.05%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$199.29] NAV [194.55] Expense Ratio [0.43%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$250.86] NAV [249.93] Expense Ratio [0.17%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$149.31] NAV [149.07] Expense Ratio [0.19%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$19.46] NAV [NA] Expense Ratio [1.43%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$15.02] NAV [15.16] Expense Ratio [0.58%] Risk [Low]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$33.56] NAV [33.61] Expense Ratio [0.03%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$34.78] NAV [35.05] Expense Ratio [0.11%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$21.01] NAV [21.19] Expense Ratio [0.56%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$50.77] NAV [51.15] Expense Ratio [0.14%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Sell]  Price [$10.98] NAV [10.94] Expense Ratio [0.35%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$67.37] NAV [66.29] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$25.66] NAV [25.92] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$34.44] NAV [34.34] Expense Ratio [0.13%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$62.97] NAV [63.78] Expense Ratio [0.13%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$45.11] NAV [46.13] Expense Ratio [0.13%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$89.47] NAV [90.59] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$53.36] NAV [53.34] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$107.14] NAV [108.75] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$72.78] NAV [71.76] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$52.52] NAV [53.30] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$55.12] NAV [54.73] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$25.16] NAV [25.12] Expense Ratio [0.29%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$34.83] NAV [35.08] Expense Ratio [0.75%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$49.98] NAV [49.80] Expense Ratio [0.07%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$70.32] NAV [70.76] Expense Ratio [0.10%] Risk [Low]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$176.34] NAV [NA] Expense Ratio [0.47%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$112.51] NAV [106.46] Expense Ratio [1.02%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$214.25] NAV [215.28] Expense Ratio [0.43%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$43.48] NAV [42.61] Expense Ratio [0.35%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$62.21] NAV [62.77] Expense Ratio [0.31%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$247.34] NAV [248.08] Expense Ratio [0.04%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$138.29] NAV [138.53] Expense Ratio [0.04%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$270.72] NAV [271.53] Expense Ratio [0.04%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$107.04] NAV [NA] Expense Ratio [0.47%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$42.25] NAV [42.58] Expense Ratio [0.69%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$66.42] NAV [66.31] Expense Ratio [0.15%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$336.27] NAV [334.10] Expense Ratio [0.24%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$50.58] NAV [50.10] Expense Ratio [0.15%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Feb_10</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$34.72] NAV [34.45] Expense Ratio [0.39%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$44.53] NAV [44.07] Expense Ratio [0.70%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$59.04] NAV [58.87] Expense Ratio [0.15%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$18.51] NAV [18.48] Expense Ratio [0.68%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$27.78] NAV [28.18] Expense Ratio [0.75%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$23.30] NAV [23.28] Expense Ratio [0.41%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$168.56] NAV [NA] Expense Ratio [0.20%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$270.54] NAV [269.90] Expense Ratio [0.09%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$83.00] NAV [82.71] Expense Ratio [0.08%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$138.97] NAV [138.53] Expense Ratio [0.04%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$104.68] NAV [104.72] Expense Ratio [0.05%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$200.78] NAV [194.55] Expense Ratio [0.43%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$251.32] NAV [249.93] Expense Ratio [0.17%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$149.90] NAV [149.07] Expense Ratio [0.19%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$19.31] NAV [NA] Expense Ratio [1.43%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$15.03] NAV [15.16] Expense Ratio [0.58%] Risk [Low]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$33.75] NAV [33.61] Expense Ratio [0.03%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$34.70] NAV [35.05] Expense Ratio [0.11%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$20.88] NAV [21.19] Expense Ratio [0.56%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$50.70] NAV [51.15] Expense Ratio [0.14%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Sell]  Price [$10.94] NAV [10.94] Expense Ratio [0.35%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$67.99] NAV [66.29] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$25.67] NAV [25.92] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$34.57] NAV [34.34] Expense Ratio [0.13%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$62.94] NAV [63.78] Expense Ratio [0.13%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$45.73] NAV [46.13] Expense Ratio [0.13%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$89.94] NAV [90.59] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$53.79] NAV [53.34] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$107.13] NAV [108.75] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$73.07] NAV [71.76] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$52.70] NAV [53.30] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$55.68] NAV [54.73] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$25.24] NAV [25.12] Expense Ratio [0.29%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$34.33] NAV [35.08] Expense Ratio [0.75%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$50.18] NAV [49.80] Expense Ratio [0.07%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$70.44] NAV [70.76] Expense Ratio [0.10%] Risk [Low]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$176.95] NAV [NA] Expense Ratio [0.47%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$113.83] NAV [106.46] Expense Ratio [1.02%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$215.93] NAV [215.28] Expense Ratio [0.43%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$43.43] NAV [42.61] Expense Ratio [0.35%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$62.02] NAV [62.77] Expense Ratio [0.31%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$248.66] NAV [248.08] Expense Ratio [0.04%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$272.13] NAV [271.53] Expense Ratio [0.04%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$107.80] NAV [NA] Expense Ratio [0.47%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$42.17] NAV [42.58] Expense Ratio [0.69%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$66.41] NAV [66.31] Expense Ratio [0.15%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$337.41] NAV [334.10] Expense Ratio [0.24%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$50.86] NAV [50.10] Expense Ratio [0.15%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Feb_13</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$35.92] NAV [34.45] Expense Ratio [0.39%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$45.54] NAV [44.07] Expense Ratio [0.70%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$60.58] NAV [58.87] Expense Ratio [0.15%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$19.37] NAV [18.48] Expense Ratio [0.68%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$28.74] NAV [28.18] Expense Ratio [0.75%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$23.26] NAV [23.28] Expense Ratio [0.41%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$171.01] NAV [NA] Expense Ratio [0.20%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$274.95] NAV [269.90] Expense Ratio [0.09%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$84.36] NAV [82.71] Expense Ratio [0.08%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$141.44] NAV [138.53] Expense Ratio [0.04%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$106.40] NAV [104.72] Expense Ratio [0.05%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$204.21] NAV [194.55] Expense Ratio [0.43%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$255.68] NAV [249.93] Expense Ratio [0.17%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$153.42] NAV [149.07] Expense Ratio [0.19%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$18.85] NAV [NA] Expense Ratio [1.43%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$14.98] NAV [15.16] Expense Ratio [0.58%] Risk [Low]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$34.33] NAV [33.61] Expense Ratio [0.03%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$34.62] NAV [35.05] Expense Ratio [0.11%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$20.77] NAV [21.19] Expense Ratio [0.56%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$50.60] NAV [51.15] Expense Ratio [0.14%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Sell]  Price [$11.28] NAV [10.94] Expense Ratio [0.35%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$68.95] NAV [66.29] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$26.20] NAV [25.92] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$34.66] NAV [34.34] Expense Ratio [0.13%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$64.84] NAV [63.78] Expense Ratio [0.13%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$45.81] NAV [46.13] Expense Ratio [0.13%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$91.26] NAV [90.59] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$54.46] NAV [53.34] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$109.70] NAV [108.75] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$75.04] NAV [71.76] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$54.03] NAV [53.30] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$55.63] NAV [54.73] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$25.60] NAV [25.12] Expense Ratio [0.29%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$34.93] NAV [35.08] Expense Ratio [0.75%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$51.29] NAV [49.80] Expense Ratio [0.07%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$71.33] NAV [70.76] Expense Ratio [0.10%] Risk [Low]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$182.16] NAV [NA] Expense Ratio [0.47%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$123.81] NAV [106.46] Expense Ratio [1.02%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$220.84] NAV [215.28] Expense Ratio [0.43%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$44.35] NAV [42.61] Expense Ratio [0.35%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$62.69] NAV [62.77] Expense Ratio [0.31%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$252.76] NAV [248.08] Expense Ratio [0.04%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$276.66] NAV [271.53] Expense Ratio [0.04%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$109.75] NAV [NA] Expense Ratio [0.47%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$42.07] NAV [42.58] Expense Ratio [0.69%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$68.12] NAV [66.31] Expense Ratio [0.15%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$344.83] NAV [334.10] Expense Ratio [0.24%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$51.84] NAV [50.10] Expense Ratio [0.15%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Feb_17</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$36.74] NAV [34.45] Expense Ratio [0.39%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$46.34] NAV [44.07] Expense Ratio [0.70%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$61.54] NAV [58.87] Expense Ratio [0.15%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$19.63] NAV [18.48] Expense Ratio [0.68%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$28.97] NAV [28.18] Expense Ratio [0.75%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$23.17] NAV [23.28] Expense Ratio [0.41%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$171.94] NAV [NA] Expense Ratio [0.20%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$277.38] NAV [269.90] Expense Ratio [0.09%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$85.12] NAV [82.71] Expense Ratio [0.08%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$142.74] NAV [138.53] Expense Ratio [0.04%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$107.46] NAV [104.72] Expense Ratio [0.05%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$208.20] NAV [194.55] Expense Ratio [0.43%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$258.65] NAV [249.93] Expense Ratio [0.17%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$156.19] NAV [149.07] Expense Ratio [0.19%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$14.91] NAV [15.16] Expense Ratio [0.58%] Risk [Low]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$34.67] NAV [33.61] Expense Ratio [0.03%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$34.72] NAV [35.05] Expense Ratio [0.11%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$20.70] NAV [21.19] Expense Ratio [0.56%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$50.64] NAV [51.15] Expense Ratio [0.14%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Sell]  Price [$11.70] NAV [10.94] Expense Ratio [0.35%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$69.62] NAV [66.29] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$26.42] NAV [25.92] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$35.00] NAV [34.34] Expense Ratio [0.13%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$66.12] NAV [63.78] Expense Ratio [0.13%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$46.18] NAV [46.13] Expense Ratio [0.13%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$92.85] NAV [90.59] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$54.35] NAV [53.34] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$110.06] NAV [108.75] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$75.69] NAV [71.76] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$54.48] NAV [53.30] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$55.71] NAV [54.73] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$25.72] NAV [25.12] Expense Ratio [0.29%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$35.69] NAV [35.08] Expense Ratio [0.75%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$51.72] NAV [49.80] Expense Ratio [0.07%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$72.10] NAV [70.76] Expense Ratio [0.10%] Risk [Low]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$183.59] NAV [NA] Expense Ratio [0.47%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$126.80] NAV [106.46] Expense Ratio [1.02%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$223.89] NAV [215.28] Expense Ratio [0.43%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$44.92] NAV [42.61] Expense Ratio [0.35%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$63.62] NAV [62.77] Expense Ratio [0.31%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$254.98] NAV [248.08] Expense Ratio [0.04%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$279.16] NAV [271.53] Expense Ratio [0.04%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$112.04] NAV [NA] Expense Ratio [0.47%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$42.09] NAV [42.58] Expense Ratio [0.67%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$69.29] NAV [66.31] Expense Ratio [0.15%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$348.89] NAV [334.10] Expense Ratio [0.24%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$52.47] NAV [50.10] Expense Ratio [0.15%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Feb_24</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$37.13] NAV [34.45] Expense Ratio [0.39%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$46.96] NAV [44.07] Expense Ratio [0.70%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$62.15] NAV [58.87] Expense Ratio [0.15%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$19.93] NAV [18.48] Expense Ratio [0.68%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$29.47] NAV [28.18] Expense Ratio [0.75%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$23.32] NAV [23.28] Expense Ratio [0.41%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$172.89] NAV [NA] Expense Ratio [0.20%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$279.16] NAV [269.90] Expense Ratio [0.09%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$85.83] NAV [82.71] Expense Ratio [0.08%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$143.77] NAV [138.53] Expense Ratio [0.04%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$108.21] NAV [104.72] Expense Ratio [0.05%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$209.45] NAV [194.55] Expense Ratio [0.43%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$260.17] NAV [249.93] Expense Ratio [0.17%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$158.15] NAV [149.07] Expense Ratio [0.19%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$19.00] NAV [NA] Expense Ratio [1.43%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$14.99] NAV [15.16] Expense Ratio [0.58%] Risk [Low]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$34.89] NAV [33.61] Expense Ratio [0.03%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$35.49] NAV [35.05] Expense Ratio [0.11%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$21.00] NAV [21.19] Expense Ratio [0.56%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$51.75] NAV [51.15] Expense Ratio [0.14%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Sell]  Price [$11.57] NAV [10.94] Expense Ratio [0.35%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$70.64] NAV [66.29] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$26.46] NAV [25.92] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$35.08] NAV [34.34] Expense Ratio [0.13%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$65.76] NAV [63.78] Expense Ratio [0.13%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$46.07] NAV [46.13] Expense Ratio [0.13%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$92.55] NAV [90.59] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$54.43] NAV [53.34] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$111.11] NAV [108.75] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$76.21] NAV [71.76] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$55.78] NAV [53.30] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$57.05] NAV [54.73] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$25.99] NAV [25.12] Expense Ratio [0.29%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$36.54] NAV [35.08] Expense Ratio [0.75%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$52.09] NAV [49.80] Expense Ratio [0.07%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$72.74] NAV [70.76] Expense Ratio [0.10%] Risk [Low]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$185.50] NAV [NA] Expense Ratio [0.47%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$130.55] NAV [106.46] Expense Ratio [1.02%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$224.65] NAV [215.28] Expense Ratio [0.43%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$45.56] NAV [42.61] Expense Ratio [0.35%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$64.12] NAV [62.77] Expense Ratio [0.31%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$256.61] NAV [248.08] Expense Ratio [0.04%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$280.85] NAV [271.53] Expense Ratio [0.04%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$110.71] NAV [NA] Expense Ratio [0.47%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$43.05] NAV [42.58] Expense Ratio [0.67%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$70.15] NAV [66.31] Expense Ratio [0.15%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$352.26] NAV [334.10] Expense Ratio [0.24%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$52.85] NAV [50.10] Expense Ratio [0.15%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Feb_28</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$37.15] NAV [34.45] Expense Ratio [0.39%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$46.72] NAV [44.07] Expense Ratio [0.70%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$61.53] NAV [58.87] Expense Ratio [0.15%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$19.52] NAV [18.48] Expense Ratio [0.68%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$30.78] NAV [28.18] Expense Ratio [0.75%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$173.19] NAV [NA] Expense Ratio [0.20%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$278.65] NAV [269.90] Expense Ratio [0.09%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$85.87] NAV [82.71] Expense Ratio [0.08%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$143.46] NAV [138.53] Expense Ratio [0.04%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$107.76] NAV [104.72] Expense Ratio [0.05%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$209.12] NAV [194.55] Expense Ratio [0.43%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$259.27] NAV [249.93] Expense Ratio [0.17%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$156.71] NAV [149.07] Expense Ratio [0.19%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$19.15] NAV [NA] Expense Ratio [1.43%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$14.82] NAV [15.16] Expense Ratio [0.58%] Risk [Low]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$34.83] NAV [33.61] Expense Ratio [0.03%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$35.12] NAV [35.05] Expense Ratio [0.11%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$20.73] NAV [21.19] Expense Ratio [0.56%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$51.12] NAV [51.15] Expense Ratio [0.14%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Sell]  Price [$11.35] NAV [10.94] Expense Ratio [0.35%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$70.86] NAV [66.29] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$26.52] NAV [25.92] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$34.71] NAV [34.34] Expense Ratio [0.13%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$65.25] NAV [63.78] Expense Ratio [0.13%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$45.92] NAV [46.13] Expense Ratio [0.13%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$91.65] NAV [90.59] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$54.34] NAV [53.34] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$110.21] NAV [108.75] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$76.34] NAV [71.76] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$55.05] NAV [53.30] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$57.01] NAV [54.73] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$25.86] NAV [25.12] Expense Ratio [0.29%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$37.09] NAV [35.08] Expense Ratio [0.75%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$51.83] NAV [49.80] Expense Ratio [0.07%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$72.68] NAV [70.76] Expense Ratio [0.10%] Risk [Low]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$183.74] NAV [NA] Expense Ratio [0.47%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$126.74] NAV [106.46] Expense Ratio [1.02%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$226.20] NAV [215.28] Expense Ratio [0.43%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$45.26] NAV [42.61] Expense Ratio [0.35%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$64.25] NAV [62.77] Expense Ratio [0.31%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$256.07] NAV [248.08] Expense Ratio [0.04%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$280.32] NAV [271.53] Expense Ratio [0.04%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$112.74] NAV [NA] Expense Ratio [0.47%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$42.46] NAV [42.58] Expense Ratio [0.67%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$69.19] NAV [66.31] Expense Ratio [0.15%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$348.22] NAV [334.10] Expense Ratio [0.24%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$52.36] NAV [50.10] Expense Ratio [0.15%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Mar_03</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$37.45] NAV [34.45] Expense Ratio [0.39%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$47.00] NAV [44.07] Expense Ratio [0.70%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$61.88] NAV [58.87] Expense Ratio [0.15%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$19.77] NAV [18.48] Expense Ratio [0.68%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$32.08] NAV [28.18] Expense Ratio [0.75%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$23.05] NAV [23.28] Expense Ratio [0.41%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$174.39] NAV [NA] Expense Ratio [0.20%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$280.41] NAV [269.90] Expense Ratio [0.09%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$86.21] NAV [82.71] Expense Ratio [0.08%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$144.42] NAV [138.53] Expense Ratio [0.04%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$108.31] NAV [104.72] Expense Ratio [0.05%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$209.26] NAV [194.55] Expense Ratio [0.43%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$260.38] NAV [249.93] Expense Ratio [0.17%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$158.24] NAV [149.07] Expense Ratio [0.19%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$19.10] NAV [NA] Expense Ratio [1.43%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$14.77] NAV [15.16] Expense Ratio [0.58%] Risk [Low]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$35.07] NAV [33.61] Expense Ratio [0.03%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$35.15] NAV [35.05] Expense Ratio [0.11%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$20.64] NAV [21.19] Expense Ratio [0.56%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$51.07] NAV [51.15] Expense Ratio [0.14%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Sell]  Price [$11.61] NAV [10.94] Expense Ratio [0.35%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$71.34] NAV [66.29] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$26.69] NAV [25.92] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$34.67] NAV [34.34] Expense Ratio [0.13%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$66.45] NAV [63.78] Expense Ratio [0.13%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$46.28] NAV [46.13] Expense Ratio [0.13%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$92.95] NAV [90.59] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$54.22] NAV [53.34] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$111.10] NAV [108.75] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$76.41] NAV [71.76] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$54.98] NAV [53.30] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$57.13] NAV [54.73] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$25.91] NAV [25.12] Expense Ratio [0.29%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$37.12] NAV [35.08] Expense Ratio [0.75%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$52.04] NAV [49.80] Expense Ratio [0.07%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$73.05] NAV [70.76] Expense Ratio [0.10%] Risk [Low]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$185.37] NAV [NA] Expense Ratio [0.47%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$130.05] NAV [106.46] Expense Ratio [1.02%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$230.31] NAV [215.28] Expense Ratio [0.43%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$45.46] NAV [42.61] Expense Ratio [0.35%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$64.64] NAV [62.77] Expense Ratio [0.31%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$257.83] NAV [248.08] Expense Ratio [0.04%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$282.13] NAV [271.53] Expense Ratio [0.04%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$115.11] NAV [NA] Expense Ratio [0.47%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$42.48] NAV [42.58] Expense Ratio [0.67%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$69.54] NAV [66.31] Expense Ratio [0.15%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$350.85] NAV [334.10] Expense Ratio [0.24%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$52.78] NAV [50.10] Expense Ratio [0.15%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Mar_06</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$35.87] NAV [37.04] Expense Ratio [0.39%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$45.33] NAV [46.71] Expense Ratio [0.70%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$59.73] NAV [61.51] Expense Ratio [0.15%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$19.52] NAV [19.53] Expense Ratio [0.68%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$30.45] NAV [30.70] Expense Ratio [0.75%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$23.06] NAV [23.24] Expense Ratio [0.41%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$173.56] NAV [NA] Expense Ratio [0.20%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$277.34] NAV [278.53] Expense Ratio [0.09%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$85.19] NAV [85.86] Expense Ratio [0.08%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$142.39] NAV [143.39] Expense Ratio [0.04%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$106.86] NAV [107.77] Expense Ratio [0.05%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$202.98] NAV [209.11] Expense Ratio [0.43%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$256.92] NAV [259.25] Expense Ratio [0.17%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$153.04] NAV [156.81] Expense Ratio [0.19%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$19.85] NAV [NA] Expense Ratio [1.43%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$14.67] NAV [14.84] Expense Ratio [0.58%] Risk [Low]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$34.57] NAV [34.82] Expense Ratio [0.03%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$35.41] NAV [35.14] Expense Ratio [0.11%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$20.57] NAV [20.78] Expense Ratio [0.56%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$51.44] NAV [51.28] Expense Ratio [0.14%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Sell]  Price [$11.10] NAV [11.37] Expense Ratio [0.35%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$70.49] NAV [70.84] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$26.25] NAV [26.54] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$34.82] NAV [34.72] Expense Ratio [0.13%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$65.51] NAV [65.25] Expense Ratio [0.13%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$46.61] NAV [45.90] Expense Ratio [0.13%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$90.30] NAV [91.65] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$54.03] NAV [54.33] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$110.51] NAV [110.20] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$74.87] NAV [76.34] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$55.09] NAV [55.04] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$57.16] NAV [56.99] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$25.61] NAV [25.95] Expense Ratio [0.29%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$36.67] NAV [35.08] Expense Ratio [0.75%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$51.52] NAV [51.82] Expense Ratio [0.07%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$72.49] NAV [72.67] Expense Ratio [0.10%] Risk [Low]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$181.63] NAV [NA] Expense Ratio [0.47%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$121.98] NAV [126.52] Expense Ratio [1.02%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$224.09] NAV [226.15] Expense Ratio [0.43%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$44.30] NAV [45.26] Expense Ratio [0.35%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$64.30] NAV [64.35] Expense Ratio [0.31%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$254.90] NAV [256.04] Expense Ratio [0.04%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$279.01] NAV [280.24] Expense Ratio [0.04%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$109.87] NAV [NA] Expense Ratio [0.47%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$42.73] NAV [42.64] Expense Ratio [0.67%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$67.25] NAV [69.19] Expense Ratio [0.15%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$343.07] NAV [348.17] Expense Ratio [0.24%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$51.57] NAV [52.36] Expense Ratio [0.15%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Mar_10</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$35.75] NAV [37.04] Expense Ratio [0.39%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$45.09] NAV [46.71] Expense Ratio [0.70%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$59.16] NAV [61.51] Expense Ratio [0.15%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$19.01] NAV [19.53] Expense Ratio [0.68%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$30.58] NAV [30.70] Expense Ratio [0.75%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Sell]  Price [$23.06] NAV [23.24] Expense Ratio [0.41%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$171.17] NAV [NA] Expense Ratio [0.20%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$274.49] NAV [278.53] Expense Ratio [0.09%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$84.54] NAV [85.86] Expense Ratio [0.08%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$140.99] NAV [143.39] Expense Ratio [0.04%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$105.99] NAV [107.77] Expense Ratio [0.05%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$200.98] NAV [209.11] Expense Ratio [0.43%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$254.71] NAV [259.25] Expense Ratio [0.17%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$151.64] NAV [156.81] Expense Ratio [0.19%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$19.77] NAV [NA] Expense Ratio [1.43%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$14.57] NAV [14.84] Expense Ratio [0.58%] Risk [Low]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$34.20] NAV [34.82] Expense Ratio [0.03%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$34.67] NAV [35.14] Expense Ratio [0.11%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [Sell]  Price [$20.40] NAV [20.78] Expense Ratio [0.56%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$50.21] NAV [51.28] Expense Ratio [0.14%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Sell]  Price [$10.64] NAV [11.37] Expense Ratio [0.35%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$69.81] NAV [70.84] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$25.98] NAV [26.54] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$63.90] NAV [65.25] Expense Ratio [0.13%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$46.17] NAV [45.90] Expense Ratio [0.13%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$89.40] NAV [91.65] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$53.71] NAV [54.33] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$108.41] NAV [110.20] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Strong Buy]  Price [$74.27] NAV [76.34] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Sell]  Price [$54.73] NAV [55.04] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$57.60] NAV [56.99] Expense Ratio [0.13%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$25.29] NAV [25.95] Expense Ratio [0.29%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$35.68] NAV [35.08] Expense Ratio [0.75%] Risk [NA]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$51.02] NAV [51.82] Expense Ratio [0.07%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$71.53] NAV [72.67] Expense Ratio [0.10%] Risk [Low]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$179.51] NAV [NA] Expense Ratio [0.47%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [UN]  Price [$117.64] NAV [126.52] Expense Ratio [1.02%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$222.33] NAV [226.15] Expense Ratio [0.43%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$43.64] NAV [45.26] Expense Ratio [0.35%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$63.47] NAV [64.35] Expense Ratio [0.31%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$252.34] NAV [256.04] Expense Ratio [0.04%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$276.18] NAV [280.24] Expense Ratio [0.04%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$108.61] NAV [NA] Expense Ratio [0.47%] Risk [High]</t>
+  </si>
+  <si>
+    <t>Rank [Sell]  Price [$41.65] NAV [42.64] Expense Ratio [0.67%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$66.42] NAV [69.19] Expense Ratio [0.15%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Hold]  Price [$339.22] NAV [348.17] Expense Ratio [0.24%] Risk [Med]</t>
+  </si>
+  <si>
+    <t>Rank [Buy]  Price [$51.14] NAV [52.36] Expense Ratio [0.15%] Risk [Med]</t>
   </si>
 </sst>
 </file>
@@ -686,7 +4027,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -708,6 +4049,121 @@
         <fgColor indexed="45"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -721,7 +4177,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="38">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
@@ -732,6 +4188,34 @@
     <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="15" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1046,9 +4530,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:AY4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -1058,252 +4542,811 @@
     <col min="3" max="3" customWidth="true" width="61.5" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="61.5" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="61.5" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="58.83203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="58.83203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="58.83203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="58.83203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="58.83203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="58.83203125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="58.83203125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="58.83203125" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="58.83203125" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="58.83203125" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="58.83203125" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="58.83203125" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="58.83203125" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="58.83203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="61.5" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="61.5" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="61.5" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="61.5" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="61.5" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="61.5" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="61.5" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="61.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="61.5" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="61.5" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="61.5" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="61.5" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="61.5" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="61.5" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="61.5" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="61.5" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="61.5" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="61.5" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="61.5" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="61.5" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="61.5" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="61.5" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="61.5" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="61.5" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="61.5" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" width="61.5" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" width="61.5" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" width="61.5" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" width="61.5" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" width="61.5" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" width="61.5" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" width="61.5" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" width="61.5" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" width="61.5" collapsed="true"/>
+    <col min="40" max="40" customWidth="true" width="61.5" collapsed="true"/>
+    <col min="41" max="41" customWidth="true" width="61.5" collapsed="true"/>
+    <col min="42" max="42" customWidth="true" width="61.5" collapsed="true"/>
+    <col min="43" max="43" customWidth="true" width="61.5" collapsed="true"/>
+    <col min="44" max="44" customWidth="true" width="61.5" collapsed="true"/>
+    <col min="45" max="45" customWidth="true" width="61.5" collapsed="true"/>
+    <col min="46" max="46" customWidth="true" width="61.5" collapsed="true"/>
+    <col min="47" max="47" customWidth="true" width="61.5" collapsed="true"/>
+    <col min="48" max="48" customWidth="true" width="61.5" collapsed="true"/>
+    <col min="49" max="49" customWidth="true" width="58.83203125" collapsed="true"/>
+    <col min="50" max="50" customWidth="true" width="58.83203125" collapsed="true"/>
+    <col min="51" max="51" customWidth="true" width="58.83203125" collapsed="true"/>
+    <col min="52" max="52" customWidth="true" width="58.83203125" collapsed="true"/>
+    <col min="53" max="53" customWidth="true" width="58.83203125" collapsed="true"/>
+    <col min="54" max="54" customWidth="true" width="58.83203125" collapsed="true"/>
+    <col min="55" max="55" customWidth="true" width="58.83203125" collapsed="true"/>
+    <col min="56" max="56" customWidth="true" width="58.83203125" collapsed="true"/>
+    <col min="57" max="57" customWidth="true" width="58.83203125" collapsed="true"/>
+    <col min="58" max="58" customWidth="true" width="58.83203125" collapsed="true"/>
+    <col min="59" max="59" customWidth="true" width="58.83203125" collapsed="true"/>
+    <col min="60" max="60" customWidth="true" width="58.83203125" collapsed="true"/>
+    <col min="61" max="61" customWidth="true" width="58.83203125" collapsed="true"/>
+    <col min="62" max="62" customWidth="true" width="58.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>202</v>
+        <v>1281</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>187</v>
+        <v>1232</v>
       </c>
       <c r="D1" s="0" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>1086</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>1038</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>989</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>940</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>890</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>841</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>793</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>744</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>660</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>645</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>615</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>600</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>585</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>570</v>
+      </c>
+      <c r="U1" s="0" t="s">
+        <v>555</v>
+      </c>
+      <c r="V1" s="0" t="s">
+        <v>540</v>
+      </c>
+      <c r="W1" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="X1" s="0" t="s">
+        <v>510</v>
+      </c>
+      <c r="Y1" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="Z1" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="AA1" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="AB1" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="AC1" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="AD1" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="AE1" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="AF1" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="AG1" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="AH1" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="AI1" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="AJ1" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="AK1" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="AL1" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="AM1" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="AN1" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="AO1" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="AP1" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="AQ1" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="AR1" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="AS1" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="AT1" s="0" t="s">
         <v>186</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="AU1" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="AV1" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="AW1" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="AX1" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="AY1" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="AZ1" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="BA1" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="BB1" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="BC1" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="BD1" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="BE1" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="BF1" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="BG1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="BH1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="BI1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="BJ1" s="0" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>203</v>
+        <v>1282</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>188</v>
+        <v>1233</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>1087</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>1039</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>990</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>941</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>891</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>842</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>794</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>661</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>661</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>646</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>631</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>616</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>601</v>
+      </c>
+      <c r="S2" s="0" t="s">
+        <v>586</v>
+      </c>
+      <c r="T2" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="U2" s="0" t="s">
+        <v>556</v>
+      </c>
+      <c r="V2" s="0" t="s">
+        <v>541</v>
+      </c>
+      <c r="W2" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="X2" s="0" t="s">
+        <v>511</v>
+      </c>
+      <c r="Y2" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="Z2" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="AA2" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="AB2" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="AC2" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="AD2" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="AE2" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="AF2" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="AG2" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="AH2" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="AI2" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="AJ2" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="AK2" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="AL2" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="AM2" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="AN2" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="AO2" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="AP2" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="AQ2" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="AR2" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="AS2" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="AT2" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="AU2" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="AV2" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="AW2" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="AX2" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="AY2" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="AZ2" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="BA2" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="BB2" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="BC2" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="M2" s="0" t="s">
+      <c r="BD2" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="N2" s="0" t="s">
+      <c r="BE2" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="O2" s="0" t="s">
+      <c r="BF2" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="P2" s="0" t="s">
+      <c r="BG2" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" s="0" t="s">
+      <c r="BH2" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="0" t="s">
+      <c r="BI2" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="0" t="s">
+      <c r="BJ2" s="0" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>204</v>
+      <c r="B3" s="19" t="s">
+        <v>1283</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>189</v>
+        <v>1234</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>1185</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>1088</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>991</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>942</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>892</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>843</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>795</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>745</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>662</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>647</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>632</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>617</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>602</v>
+      </c>
+      <c r="S3" s="0" t="s">
+        <v>587</v>
+      </c>
+      <c r="T3" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="U3" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="V3" s="0" t="s">
+        <v>542</v>
+      </c>
+      <c r="W3" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="X3" s="0" t="s">
+        <v>512</v>
+      </c>
+      <c r="Y3" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="Z3" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="AA3" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="AB3" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="AC3" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="AD3" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="AE3" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="AF3" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="AG3" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="AH3" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="AI3" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="AJ3" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="AK3" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="AL3" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="AM3" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="AN3" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="AO3" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="AP3" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="AQ3" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="AR3" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="AS3" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="AT3" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="AU3" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="AV3" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="AW3" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="AX3" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="AY3" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="AZ3" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="BA3" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="BB3" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="L3" s="0" t="s">
+      <c r="BC3" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="BD3" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="BE3" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="O3" s="0" t="s">
+      <c r="BF3" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="P3" s="0" t="s">
+      <c r="BG3" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="Q3" s="0" t="s">
+      <c r="BH3" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="R3" s="0" t="s">
+      <c r="BI3" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="0" t="s">
+      <c r="BJ3" s="0" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>205</v>
+        <v>1284</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>190</v>
+        <v>1235</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>1186</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>1089</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>1041</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>992</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>943</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>893</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>844</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>796</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>746</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>663</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>648</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>633</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>618</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="S4" s="0" t="s">
+        <v>588</v>
+      </c>
+      <c r="T4" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="U4" s="0" t="s">
+        <v>558</v>
+      </c>
+      <c r="V4" s="0" t="s">
+        <v>543</v>
+      </c>
+      <c r="W4" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="X4" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="Y4" s="12" t="s">
+        <v>498</v>
+      </c>
+      <c r="Z4" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="AA4" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="AB4" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="AC4" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="AD4" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="AE4" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="AF4" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="AG4" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="AH4" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="AI4" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="AJ4" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="AK4" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="AL4" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="AM4" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="AN4" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="AO4" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="AP4" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="AQ4" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="AR4" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="AS4" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="AT4" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="AU4" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="AV4" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="AW4" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="AX4" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="AY4" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="AZ4" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="BA4" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="BB4" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="L4" s="0" t="s">
+      <c r="BC4" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="M4" s="0" t="s">
+      <c r="BD4" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="N4" s="0" t="s">
+      <c r="BE4" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="O4" s="0" t="s">
+      <c r="BF4" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="P4" s="0" t="s">
+      <c r="BG4" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="0" t="s">
+      <c r="BH4" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="0" t="s">
+      <c r="BI4" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="S4" s="0" t="s">
+      <c r="BJ4" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1314,10 +5357,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:AY4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1340,180 +5383,654 @@
     <col min="17" max="17" customWidth="true" width="55.5" collapsed="true"/>
     <col min="18" max="18" customWidth="true" width="55.5" collapsed="true"/>
     <col min="19" max="19" customWidth="true" width="55.5" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="55.5" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="55.5" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="55.5" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="55.5" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="55.5" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="55.5" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="55.5" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="55.5" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="55.5" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="55.5" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="55.5" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" width="55.5" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" width="55.5" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" width="55.5" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" width="55.5" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" width="55.5" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" width="55.5" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" width="55.5" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" width="55.5" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" width="55.5" collapsed="true"/>
+    <col min="40" max="40" customWidth="true" width="55.5" collapsed="true"/>
+    <col min="41" max="41" customWidth="true" width="55.5" collapsed="true"/>
+    <col min="42" max="42" customWidth="true" width="55.5" collapsed="true"/>
+    <col min="43" max="43" customWidth="true" width="55.5" collapsed="true"/>
+    <col min="44" max="44" customWidth="true" width="55.5" collapsed="true"/>
+    <col min="45" max="45" customWidth="true" width="55.5" collapsed="true"/>
+    <col min="46" max="46" customWidth="true" width="55.5" collapsed="true"/>
+    <col min="47" max="47" customWidth="true" width="55.5" collapsed="true"/>
+    <col min="48" max="48" customWidth="true" width="55.5" collapsed="true"/>
+    <col min="49" max="49" customWidth="true" width="55.5" collapsed="true"/>
+    <col min="50" max="50" customWidth="true" width="55.5" collapsed="true"/>
+    <col min="51" max="51" customWidth="true" width="55.5" collapsed="true"/>
+    <col min="52" max="52" customWidth="true" width="55.5" collapsed="true"/>
+    <col min="53" max="53" customWidth="true" width="55.5" collapsed="true"/>
+    <col min="54" max="54" customWidth="true" width="55.5" collapsed="true"/>
+    <col min="55" max="55" customWidth="true" width="55.5" collapsed="true"/>
+    <col min="56" max="56" customWidth="true" width="55.5" collapsed="true"/>
+    <col min="57" max="57" customWidth="true" width="55.5" collapsed="true"/>
+    <col min="58" max="58" customWidth="true" width="55.5" collapsed="true"/>
+    <col min="59" max="59" customWidth="true" width="55.5" collapsed="true"/>
+    <col min="60" max="60" customWidth="true" width="55.5" collapsed="true"/>
+    <col min="61" max="61" customWidth="true" width="55.5" collapsed="true"/>
+    <col min="62" max="62" customWidth="true" width="55.5" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>202</v>
+        <v>1281</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>187</v>
+        <v>1232</v>
       </c>
       <c r="D1" s="0" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>1086</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>1038</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>989</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>940</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>890</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>841</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>793</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>744</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>660</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>645</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>615</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>600</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>585</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>570</v>
+      </c>
+      <c r="U1" s="0" t="s">
+        <v>555</v>
+      </c>
+      <c r="V1" s="0" t="s">
+        <v>540</v>
+      </c>
+      <c r="W1" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="X1" s="0" t="s">
+        <v>510</v>
+      </c>
+      <c r="Y1" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="Z1" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="AA1" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="AB1" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="AC1" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="AD1" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="AE1" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="AF1" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="AG1" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="AH1" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="AI1" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="AJ1" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="AK1" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="AL1" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="AM1" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="AN1" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="AO1" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="AP1" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="AQ1" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="AR1" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="AS1" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="AT1" s="0" t="s">
         <v>186</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="AU1" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="AV1" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="AW1" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="AX1" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="AY1" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="AZ1" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="BA1" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="BB1" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="BC1" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="BD1" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="BE1" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="BF1" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="BG1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="BH1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="BI1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="BJ1" s="0" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>206</v>
+        <v>1285</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>191</v>
+        <v>1236</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>1139</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>1090</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>1042</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>993</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>944</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>894</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>845</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>797</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>747</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>664</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>649</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>634</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>619</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>604</v>
+      </c>
+      <c r="S2" s="0" t="s">
+        <v>589</v>
+      </c>
+      <c r="T2" s="0" t="s">
+        <v>574</v>
+      </c>
+      <c r="U2" s="0" t="s">
+        <v>559</v>
+      </c>
+      <c r="V2" s="0" t="s">
+        <v>544</v>
+      </c>
+      <c r="W2" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="X2" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="Y2" s="0" t="s">
+        <v>499</v>
+      </c>
+      <c r="Z2" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="AA2" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="AB2" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="AC2" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="AD2" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="AE2" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="AF2" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="AG2" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="AH2" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="AI2" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="AJ2" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="AK2" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="AL2" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="AM2" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="AN2" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="AO2" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="AP2" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="AQ2" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="AR2" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="AS2" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="AT2" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="AU2" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="AV2" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="AW2" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="AX2" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="AY2" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="AZ2" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="BA2" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="BB2" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="BC2" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="M2" s="0" t="s">
+      <c r="BD2" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="N2" s="0" t="s">
+      <c r="BE2" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="0" t="s">
+      <c r="BF2" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="P2" s="0" t="s">
+      <c r="BG2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="0" t="s">
+      <c r="BH2" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="R2" s="0" t="s">
+      <c r="BI2" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="0" t="s">
+      <c r="BJ2" s="0" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>207</v>
+        <v>1286</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>192</v>
+        <v>1237</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>1091</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>1043</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>994</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>945</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>895</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>846</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>798</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>748</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>665</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>650</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>635</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>620</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>605</v>
+      </c>
+      <c r="S3" s="0" t="s">
+        <v>590</v>
+      </c>
+      <c r="T3" s="0" t="s">
+        <v>575</v>
+      </c>
+      <c r="U3" s="0" t="s">
+        <v>560</v>
+      </c>
+      <c r="V3" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="W3" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="X3" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="Y3" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="Z3" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="AA3" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="AB3" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="AC3" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD3" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="AE3" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="AF3" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="AG3" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="AH3" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="AI3" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="AJ3" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="AK3" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="AL3" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="AM3" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN3" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="AO3" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="AP3" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="AQ3" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="AR3" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="AS3" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="AT3" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="AU3" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="AV3" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="AW3" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="AX3" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="AY3" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="AZ3" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="BA3" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="BB3" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="L3" s="0" t="s">
+      <c r="BC3" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="BD3" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="BE3" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="O3" s="0" t="s">
+      <c r="BF3" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="P3" s="0" t="s">
+      <c r="BG3" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="Q3" s="0" t="s">
+      <c r="BH3" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="R3" s="0" t="s">
+      <c r="BI3" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="S3" s="0" t="s">
+      <c r="BJ3" s="0" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>743</v>
+      </c>
+      <c r="B4" t="s">
+        <v>363</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>665</v>
       </c>
     </row>
   </sheetData>
@@ -1523,7 +6040,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:AX10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
@@ -1545,495 +6062,3686 @@
     <col min="12" max="12" customWidth="true" width="63.5" collapsed="true"/>
     <col min="13" max="13" customWidth="true" width="63.5" collapsed="true"/>
     <col min="14" max="14" customWidth="true" width="63.5" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="58.83203125" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="58.83203125" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="58.83203125" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="58.83203125" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="63.5" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="63.5" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="63.5" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="63.5" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="63.5" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="63.5" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="63.5" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="63.5" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="63.5" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="63.5" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="63.5" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="63.5" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="63.5" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="63.5" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="63.5" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="63.5" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" width="63.5" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" width="63.5" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" width="63.5" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" width="63.5" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" width="63.5" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" width="63.5" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" width="63.5" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" width="63.5" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" width="63.5" collapsed="true"/>
+    <col min="40" max="40" customWidth="true" width="63.5" collapsed="true"/>
+    <col min="41" max="41" customWidth="true" width="63.5" collapsed="true"/>
+    <col min="42" max="42" customWidth="true" width="63.5" collapsed="true"/>
+    <col min="43" max="43" customWidth="true" width="63.5" collapsed="true"/>
+    <col min="44" max="44" customWidth="true" width="63.5" collapsed="true"/>
+    <col min="45" max="45" customWidth="true" width="63.5" collapsed="true"/>
+    <col min="46" max="46" customWidth="true" width="63.5" collapsed="true"/>
+    <col min="47" max="47" customWidth="true" width="63.5" collapsed="true"/>
+    <col min="48" max="48" customWidth="true" width="63.5" collapsed="true"/>
+    <col min="49" max="49" customWidth="true" width="63.5" collapsed="true"/>
+    <col min="50" max="50" customWidth="true" width="63.5" collapsed="true"/>
+    <col min="51" max="51" customWidth="true" width="63.5" collapsed="true"/>
+    <col min="52" max="52" customWidth="true" width="63.5" collapsed="true"/>
+    <col min="53" max="53" customWidth="true" width="63.5" collapsed="true"/>
+    <col min="54" max="54" customWidth="true" width="63.5" collapsed="true"/>
+    <col min="55" max="55" customWidth="true" width="63.5" collapsed="true"/>
+    <col min="56" max="56" customWidth="true" width="63.5" collapsed="true"/>
+    <col min="57" max="57" customWidth="true" width="63.5" collapsed="true"/>
+    <col min="58" max="58" customWidth="true" width="58.83203125" collapsed="true"/>
+    <col min="59" max="59" customWidth="true" width="58.83203125" collapsed="true"/>
+    <col min="60" max="60" customWidth="true" width="58.83203125" collapsed="true"/>
+    <col min="61" max="61" customWidth="true" width="58.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>202</v>
+        <v>1281</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>187</v>
+        <v>1232</v>
       </c>
       <c r="D1" s="0" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>1086</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>1038</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>989</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>940</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>890</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>841</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>793</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>744</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>660</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>645</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>615</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>600</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>585</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>570</v>
+      </c>
+      <c r="U1" s="0" t="s">
+        <v>555</v>
+      </c>
+      <c r="V1" s="0" t="s">
+        <v>540</v>
+      </c>
+      <c r="W1" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="X1" s="0" t="s">
+        <v>510</v>
+      </c>
+      <c r="Y1" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="Z1" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="AA1" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="AB1" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="AC1" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="AD1" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="AE1" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="AF1" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="AG1" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="AH1" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="AI1" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="AJ1" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="AK1" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="AL1" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="AM1" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="AN1" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="AO1" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="AP1" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="AQ1" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="AR1" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="AS1" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="AT1" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="AU1" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="AV1" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="AW1" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="AX1" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="AY1" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="AZ1" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="BA1" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="BB1" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="BC1" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="BD1" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="BE1" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="BF1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="BG1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="BH1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="BI1" s="0" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="20" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>896</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>1092</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>995</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>946</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>896</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>847</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>799</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>749</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>666</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>651</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>636</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>621</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>606</v>
+      </c>
+      <c r="S2" s="0" t="s">
+        <v>591</v>
+      </c>
+      <c r="T2" s="0" t="s">
+        <v>576</v>
+      </c>
+      <c r="U2" s="0" t="s">
+        <v>561</v>
+      </c>
+      <c r="V2" s="0" t="s">
+        <v>546</v>
+      </c>
+      <c r="W2" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="X2" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="Y2" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="Z2" s="0" t="s">
+        <v>486</v>
+      </c>
+      <c r="AA2" s="0" t="s">
+        <v>471</v>
+      </c>
+      <c r="AB2" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="AC2" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD2" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="AE2" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="AF2" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="AG2" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="AH2" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="AI2" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="AJ2" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="AK2" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="AL2" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="AM2" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="AN2" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="AO2" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="AP2" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="AQ2" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR2" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="AS2" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="D2" s="0" t="s">
+      <c r="AT2" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="AU2" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="AV2" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="AW2" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="AX2" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="AY2" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="AZ2" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="BA2" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="BB2" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="BC2" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="M2" s="0" t="s">
+      <c r="BD2" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="N2" s="0" t="s">
+      <c r="BE2" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="O2" s="0" t="s">
+      <c r="BF2" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="0" t="s">
+      <c r="BG2" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="0" t="s">
+      <c r="BH2" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="0" t="s">
+      <c r="BI2" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
-        <v>208</v>
+      <c r="B3" s="21" t="s">
+        <v>1288</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>194</v>
+        <v>1239</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>1141</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>1093</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>1045</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>996</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>947</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>897</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>848</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>800</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>750</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>667</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>652</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>637</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>622</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>607</v>
+      </c>
+      <c r="S3" s="0" t="s">
+        <v>592</v>
+      </c>
+      <c r="T3" s="0" t="s">
+        <v>577</v>
+      </c>
+      <c r="U3" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="V3" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="W3" s="0" t="s">
+        <v>532</v>
+      </c>
+      <c r="X3" s="0" t="s">
+        <v>517</v>
+      </c>
+      <c r="Y3" s="13" t="s">
+        <v>502</v>
+      </c>
+      <c r="Z3" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="AA3" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="AB3" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="AC3" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="AD3" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="AE3" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="AF3" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="AG3" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="AH3" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="AI3" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="AJ3" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="AK3" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="AL3" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="AM3" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="AN3" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="AO3" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="AP3" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="AQ3" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR3" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="AS3" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="AT3" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="AU3" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="AV3" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="AW3" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="AX3" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="AY3" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="AZ3" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="BA3" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="BB3" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="L3" s="0" t="s">
+      <c r="BC3" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="BD3" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="BE3" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="O3" s="0" t="s">
+      <c r="BF3" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="P3" s="0" t="s">
+      <c r="BG3" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" s="0" t="s">
+      <c r="BH3" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="R3" s="0" t="s">
+      <c r="BI3" s="0" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>209</v>
+        <v>1289</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>195</v>
+        <v>1240</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>1191</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>1094</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>1046</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>997</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>948</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>898</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>849</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>801</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>751</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>668</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>653</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>638</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>623</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>608</v>
+      </c>
+      <c r="S4" s="0" t="s">
+        <v>593</v>
+      </c>
+      <c r="T4" s="0" t="s">
+        <v>578</v>
+      </c>
+      <c r="U4" s="0" t="s">
+        <v>563</v>
+      </c>
+      <c r="V4" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="W4" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="X4" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="Y4" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="Z4" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="AA4" s="0" t="s">
+        <v>473</v>
+      </c>
+      <c r="AB4" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="AC4" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="AD4" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="AE4" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="AF4" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="AG4" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="AH4" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="AI4" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="AJ4" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="AK4" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="AL4" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="AM4" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="AN4" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="AO4" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="AP4" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="AQ4" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="AR4" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="AS4" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="AT4" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="AU4" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="AV4" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="AW4" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="AX4" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="AY4" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="AZ4" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="BA4" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="BB4" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="L4" s="0" t="s">
+      <c r="BC4" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="M4" s="0" t="s">
+      <c r="BD4" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="N4" s="0" t="s">
+      <c r="BE4" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="O4" s="0" t="s">
+      <c r="BF4" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="P4" s="0" t="s">
+      <c r="BG4" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="Q4" s="0" t="s">
+      <c r="BH4" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="R4" s="0" t="s">
+      <c r="BI4" s="0" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>43</v>
       </c>
-      <c r="B5" t="s">
-        <v>210</v>
+      <c r="B5" s="22" t="s">
+        <v>1290</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>196</v>
+        <v>1241</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>1095</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>998</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>949</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>899</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>850</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>802</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>752</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>669</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>654</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>639</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>624</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>609</v>
+      </c>
+      <c r="S5" s="0" t="s">
+        <v>594</v>
+      </c>
+      <c r="T5" s="0" t="s">
+        <v>579</v>
+      </c>
+      <c r="U5" s="0" t="s">
+        <v>564</v>
+      </c>
+      <c r="V5" s="0" t="s">
+        <v>549</v>
+      </c>
+      <c r="W5" s="0" t="s">
+        <v>534</v>
+      </c>
+      <c r="X5" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="Y5" s="14" t="s">
+        <v>504</v>
+      </c>
+      <c r="Z5" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="AA5" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="AB5" s="0" t="s">
+        <v>459</v>
+      </c>
+      <c r="AC5" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="AD5" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="AE5" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="AF5" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="AG5" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="AH5" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="AI5" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="AJ5" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="AK5" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="AL5" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="AM5" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="AN5" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="AO5" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="AP5" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="AQ5" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="AR5" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="AS5" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="AT5" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="AU5" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="AV5" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="AW5" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="AX5" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="AY5" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="AZ5" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="BA5" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="K5" s="0" t="s">
+      <c r="BB5" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="L5" s="0" t="s">
+      <c r="BC5" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="M5" s="0" t="s">
+      <c r="BD5" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="N5" s="0" t="s">
+      <c r="BE5" s="0" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>211</v>
+        <v>1291</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>197</v>
+        <v>1242</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>1144</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>1096</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>1048</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>999</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>950</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>900</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>851</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>803</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>753</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>670</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>655</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>625</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>610</v>
+      </c>
+      <c r="S6" s="0" t="s">
+        <v>595</v>
+      </c>
+      <c r="T6" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="U6" s="0" t="s">
+        <v>565</v>
+      </c>
+      <c r="V6" s="0" t="s">
+        <v>550</v>
+      </c>
+      <c r="W6" s="0" t="s">
+        <v>535</v>
+      </c>
+      <c r="X6" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="Y6" s="0" t="s">
+        <v>505</v>
+      </c>
+      <c r="Z6" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="AA6" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="AB6" s="0" t="s">
+        <v>460</v>
+      </c>
+      <c r="AC6" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="AD6" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="AE6" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="AF6" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="AG6" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="AH6" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="AI6" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="AJ6" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK6" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="AL6" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="AM6" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="AN6" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="AO6" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="AP6" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="AQ6" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="AR6" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="AS6" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="AT6" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="AU6" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="AV6" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="AW6" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="AX6" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="AY6" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="AZ6" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="BA6" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="K6" s="0" t="s">
+      <c r="BB6" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="L6" s="0" t="s">
+      <c r="BC6" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="M6" s="0" t="s">
+      <c r="BD6" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="N6" s="0" t="s">
+      <c r="BE6" s="0" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>45</v>
       </c>
-      <c r="B7" t="s">
-        <v>212</v>
+      <c r="B7" s="23" t="s">
+        <v>1292</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>198</v>
+        <v>1243</v>
       </c>
       <c r="D7" s="0" t="s">
+        <v>1194</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>1145</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>1097</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>1000</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>951</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>901</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>852</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>804</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>754</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>671</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>656</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>641</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>626</v>
+      </c>
+      <c r="R7" s="0" t="s">
+        <v>611</v>
+      </c>
+      <c r="S7" s="0" t="s">
+        <v>596</v>
+      </c>
+      <c r="T7" s="0" t="s">
+        <v>581</v>
+      </c>
+      <c r="U7" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="V7" s="0" t="s">
+        <v>551</v>
+      </c>
+      <c r="W7" s="0" t="s">
+        <v>536</v>
+      </c>
+      <c r="X7" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="Y7" s="15" t="s">
+        <v>506</v>
+      </c>
+      <c r="Z7" s="0" t="s">
+        <v>491</v>
+      </c>
+      <c r="AA7" s="0" t="s">
+        <v>476</v>
+      </c>
+      <c r="AB7" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="AC7" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="AD7" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="AE7" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="AF7" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="AG7" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="AH7" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="AI7" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="AJ7" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="AK7" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="AL7" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="AM7" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="AN7" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="AO7" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="AP7" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="AQ7" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="AR7" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="AS7" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="AT7" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="AU7" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="AV7" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="AW7" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="AX7" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="AY7" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="AZ7" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="J7" s="0" t="s">
+      <c r="BA7" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="K7" s="0" t="s">
+      <c r="BB7" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="L7" s="0" t="s">
+      <c r="BC7" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="M7" s="0" t="s">
+      <c r="BD7" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="N7" s="0" t="s">
+      <c r="BE7" s="0" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>213</v>
+        <v>1293</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>199</v>
+        <v>1244</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>1195</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>1146</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>1098</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>1001</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>952</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>902</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>853</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>805</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>755</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>672</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>657</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>642</v>
+      </c>
+      <c r="Q8" s="0" t="s">
+        <v>627</v>
+      </c>
+      <c r="R8" s="0" t="s">
+        <v>612</v>
+      </c>
+      <c r="S8" s="0" t="s">
+        <v>597</v>
+      </c>
+      <c r="T8" s="0" t="s">
+        <v>582</v>
+      </c>
+      <c r="U8" s="0" t="s">
+        <v>567</v>
+      </c>
+      <c r="V8" s="0" t="s">
+        <v>552</v>
+      </c>
+      <c r="W8" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="X8" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="Y8" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="Z8" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="AA8" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="AB8" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="AC8" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="AD8" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="AE8" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="AF8" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="AG8" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="AH8" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="AI8" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="AJ8" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="AK8" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="AL8" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="AM8" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="AN8" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="AO8" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="AP8" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="AQ8" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="AR8" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="AS8" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="AT8" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="AU8" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="AV8" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="AW8" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="AX8" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="AY8" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="AZ8" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="J8" s="0" t="s">
+      <c r="BA8" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="K8" s="0" t="s">
+      <c r="BB8" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="L8" s="0" t="s">
+      <c r="BC8" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="M8" s="0" t="s">
+      <c r="BD8" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="N8" s="0" t="s">
+      <c r="BE8" s="0" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>47</v>
       </c>
-      <c r="B9" t="s">
-        <v>214</v>
+      <c r="B9" s="24" t="s">
+        <v>1294</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>200</v>
+        <v>1245</v>
       </c>
       <c r="D9" s="0" t="s">
+        <v>1196</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>1147</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>1099</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>953</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>903</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>854</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>806</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>673</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>658</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>643</v>
+      </c>
+      <c r="Q9" s="0" t="s">
+        <v>628</v>
+      </c>
+      <c r="R9" s="0" t="s">
+        <v>613</v>
+      </c>
+      <c r="S9" s="0" t="s">
+        <v>598</v>
+      </c>
+      <c r="T9" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="U9" s="0" t="s">
+        <v>568</v>
+      </c>
+      <c r="V9" s="0" t="s">
+        <v>553</v>
+      </c>
+      <c r="W9" s="0" t="s">
+        <v>538</v>
+      </c>
+      <c r="X9" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="Y9" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="Z9" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="AA9" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="AB9" s="0" t="s">
+        <v>463</v>
+      </c>
+      <c r="AC9" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="AD9" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="AE9" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="AF9" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="AG9" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="AH9" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="AI9" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="AJ9" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="AK9" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="AL9" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="AM9" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="AN9" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="AO9" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="AP9" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="AQ9" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="AR9" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="AS9" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="AT9" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="AU9" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="AV9" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="AW9" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="AX9" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="AY9" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="I9" s="0" t="s">
+      <c r="AZ9" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="J9" s="0" t="s">
+      <c r="BA9" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="K9" s="0" t="s">
+      <c r="BB9" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="L9" s="0" t="s">
+      <c r="BC9" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="M9" s="0" t="s">
+      <c r="BD9" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="N9" s="0" t="s">
+      <c r="BE9" s="0" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>215</v>
+        <v>1295</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>201</v>
+        <v>1246</v>
       </c>
       <c r="D10" s="0" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>1100</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>1052</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>1003</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>954</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>904</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>855</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>807</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>757</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>674</v>
+      </c>
+      <c r="O10" s="0" t="s">
+        <v>659</v>
+      </c>
+      <c r="P10" s="0" t="s">
+        <v>644</v>
+      </c>
+      <c r="Q10" s="0" t="s">
+        <v>629</v>
+      </c>
+      <c r="R10" s="0" t="s">
+        <v>614</v>
+      </c>
+      <c r="S10" s="0" t="s">
+        <v>599</v>
+      </c>
+      <c r="T10" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="U10" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="V10" s="0" t="s">
+        <v>554</v>
+      </c>
+      <c r="W10" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="X10" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="Y10" s="16" t="s">
+        <v>509</v>
+      </c>
+      <c r="Z10" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="AA10" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="AB10" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="AC10" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="AD10" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="AE10" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="AF10" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="AG10" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="AH10" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="AI10" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="AJ10" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="AK10" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="AL10" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="AM10" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="AN10" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="AO10" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="AP10" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="AQ10" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="AR10" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="AS10" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="AT10" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="AU10" s="0" t="s">
         <v>184</v>
       </c>
+      <c r="AV10" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="AW10" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="AX10" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="AY10" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="AZ10" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="BA10" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="BB10" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="BC10" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD10" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE10" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="56.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="56.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="56.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="56.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="56.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="56.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="56.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="56.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="56.6640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="56.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="56.6640625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="56.6640625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="56.6640625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>1086</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>1038</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>989</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>940</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>890</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>841</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>793</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>744</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>675</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>1149</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>1101</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>1004</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>1004</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>955</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>905</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>856</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>808</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>758</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>677</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>1150</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>1053</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>1005</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>956</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>906</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>857</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>809</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>759</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>679</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>1151</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>1103</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>1054</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>1006</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>957</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>907</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>858</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>810</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>760</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>681</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>1152</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>1055</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>958</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>908</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>859</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>811</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>761</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>683</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>1202</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>1105</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>1056</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>1008</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>959</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>909</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>860</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>812</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>762</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>685</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>1154</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>1106</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>1057</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>1009</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>960</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>910</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>861</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>813</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>763</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>686</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:C34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="110" zoomScaleNormal="110">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="63.5" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="63.5" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="63.5" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="63.5" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="63.5" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="63.5" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="63.5" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="63.5" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="63.5" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="63.5" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="63.5" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="63.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="63.5" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>1086</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>1038</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>989</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>940</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>890</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>841</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>793</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>744</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>687</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>1204</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>1155</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>1107</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>1058</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>1010</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>961</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>911</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>862</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>764</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>1091</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>1043</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>994</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>945</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>895</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>846</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>798</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>748</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>1191</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>1094</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>1046</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>997</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>948</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>898</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>849</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>801</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>751</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>1141</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>1093</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>1045</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>996</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>947</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>897</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>848</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>800</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>750</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>689</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>1059</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>1011</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>962</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>912</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>863</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>814</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>765</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>691</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>1206</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>1109</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>1060</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>1012</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>963</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>913</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>864</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>815</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>766</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>693</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>1110</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>1061</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>1013</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>964</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>914</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>865</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>816</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>767</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>695</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>1208</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>1111</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>1062</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>1014</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>965</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>915</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>866</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>817</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>768</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>697</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>1209</v>
+      </c>
       <c r="E10" s="0" t="s">
-        <v>169</v>
+        <v>1160</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>155</v>
+        <v>1112</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>125</v>
+        <v>1063</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>1015</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>109</v>
+        <v>966</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>109</v>
+        <v>916</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>94</v>
+        <v>867</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>79</v>
+        <v>818</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>62</v>
+        <v>769</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>62</v>
+        <v>698</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>699</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>1210</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>1113</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>1064</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>1016</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>967</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>917</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>868</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>819</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>770</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>701</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>1211</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>1114</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>1065</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>1017</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>968</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>918</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>869</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>820</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>771</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>703</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>1212</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>1115</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>1066</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>1018</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>969</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>919</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>870</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>821</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>772</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>705</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>1213</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>1116</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>1067</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>970</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>920</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>871</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>822</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>773</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>707</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>1214</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>1117</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>1068</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>1020</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>971</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>921</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>872</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>823</v>
+      </c>
+      <c r="M15" s="0" t="s">
+        <v>774</v>
+      </c>
+      <c r="N15" s="0" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>709</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>1215</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>1118</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>1069</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>1021</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>972</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>922</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>873</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>824</v>
+      </c>
+      <c r="M16" s="0" t="s">
+        <v>775</v>
+      </c>
+      <c r="N16" s="0" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>711</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>1216</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>1167</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>1119</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>1070</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>1022</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>973</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>923</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>874</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>825</v>
+      </c>
+      <c r="M17" s="0" t="s">
+        <v>776</v>
+      </c>
+      <c r="N17" s="0" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>713</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>1217</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>1120</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>1071</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>1023</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>974</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>924</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>875</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>826</v>
+      </c>
+      <c r="M18" s="0" t="s">
+        <v>777</v>
+      </c>
+      <c r="N18" s="0" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>715</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>1072</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>1024</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>975</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>925</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>876</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>827</v>
+      </c>
+      <c r="M19" s="0" t="s">
+        <v>778</v>
+      </c>
+      <c r="N19" s="0" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>717</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>1268</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>1170</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>1073</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>1025</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>976</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>926</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>877</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>828</v>
+      </c>
+      <c r="M20" s="0" t="s">
+        <v>779</v>
+      </c>
+      <c r="N20" s="0" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>719</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>1171</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>1123</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>1074</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>1026</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>977</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>927</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>878</v>
+      </c>
+      <c r="L21" s="0" t="s">
+        <v>829</v>
+      </c>
+      <c r="M21" s="0" t="s">
+        <v>780</v>
+      </c>
+      <c r="N21" s="0" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>721</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>1172</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>1124</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>1075</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>1027</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>978</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>928</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>879</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>830</v>
+      </c>
+      <c r="M22" s="0" t="s">
+        <v>781</v>
+      </c>
+      <c r="N22" s="0" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>723</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>1125</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>1076</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>1028</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>979</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>929</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>880</v>
+      </c>
+      <c r="L23" s="0" t="s">
+        <v>831</v>
+      </c>
+      <c r="M23" s="0" t="s">
+        <v>782</v>
+      </c>
+      <c r="N23" s="0" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>725</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>1077</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>980</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>930</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>881</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>832</v>
+      </c>
+      <c r="M24" s="0" t="s">
+        <v>783</v>
+      </c>
+      <c r="N24" s="0" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>727</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>1224</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>1127</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>1078</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>1030</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>981</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>931</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>882</v>
+      </c>
+      <c r="L25" s="0" t="s">
+        <v>833</v>
+      </c>
+      <c r="M25" s="0" t="s">
+        <v>784</v>
+      </c>
+      <c r="N25" s="0" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>729</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>1128</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>1079</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>1031</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>982</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>932</v>
+      </c>
+      <c r="K26" s="0" t="s">
+        <v>883</v>
+      </c>
+      <c r="L26" s="0" t="s">
+        <v>834</v>
+      </c>
+      <c r="M26" s="0" t="s">
+        <v>785</v>
+      </c>
+      <c r="N26" s="0" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>1144</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>1096</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>1048</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>999</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>950</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>933</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>851</v>
+      </c>
+      <c r="L27" s="0" t="s">
+        <v>803</v>
+      </c>
+      <c r="M27" s="0" t="s">
+        <v>753</v>
+      </c>
+      <c r="N27" s="0" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>731</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>1226</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>1129</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>1080</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>983</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>934</v>
+      </c>
+      <c r="K28" s="0" t="s">
+        <v>884</v>
+      </c>
+      <c r="L28" s="0" t="s">
+        <v>835</v>
+      </c>
+      <c r="M28" s="0" t="s">
+        <v>786</v>
+      </c>
+      <c r="N28" s="0" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>733</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>1227</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>1130</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>1081</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>1033</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>984</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>935</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>885</v>
+      </c>
+      <c r="L29" s="0" t="s">
+        <v>836</v>
+      </c>
+      <c r="M29" s="0" t="s">
+        <v>787</v>
+      </c>
+      <c r="N29" s="0" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>735</v>
+      </c>
+      <c r="B30" s="36" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>1228</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>1131</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>1082</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>1034</v>
+      </c>
+      <c r="I30" s="0" t="s">
+        <v>985</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>936</v>
+      </c>
+      <c r="K30" s="0" t="s">
+        <v>886</v>
+      </c>
+      <c r="L30" s="0" t="s">
+        <v>837</v>
+      </c>
+      <c r="M30" s="0" t="s">
+        <v>788</v>
+      </c>
+      <c r="N30" s="0" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>737</v>
+      </c>
+      <c r="B31" s="37" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>1229</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>1180</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>1132</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>1083</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>1035</v>
+      </c>
+      <c r="I31" s="0" t="s">
+        <v>986</v>
+      </c>
+      <c r="J31" s="0" t="s">
+        <v>937</v>
+      </c>
+      <c r="K31" s="0" t="s">
+        <v>887</v>
+      </c>
+      <c r="L31" s="0" t="s">
+        <v>838</v>
+      </c>
+      <c r="M31" s="0" t="s">
+        <v>789</v>
+      </c>
+      <c r="N31" s="0" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>739</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>1133</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>1084</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>1036</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>987</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>938</v>
+      </c>
+      <c r="K32" s="0" t="s">
+        <v>888</v>
+      </c>
+      <c r="L32" s="0" t="s">
+        <v>839</v>
+      </c>
+      <c r="M32" s="0" t="s">
+        <v>790</v>
+      </c>
+      <c r="N32" s="0" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>741</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>1231</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>1134</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>1085</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>988</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>939</v>
+      </c>
+      <c r="K33" s="0" t="s">
+        <v>889</v>
+      </c>
+      <c r="L33" s="0" t="s">
+        <v>840</v>
+      </c>
+      <c r="M33" s="0" t="s">
+        <v>791</v>
+      </c>
+      <c r="N33" s="0" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>1186</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>1089</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>1041</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>992</v>
+      </c>
+      <c r="I34" s="0" t="s">
+        <v>943</v>
+      </c>
+      <c r="J34" s="0" t="s">
+        <v>893</v>
+      </c>
+      <c r="K34" s="0" t="s">
+        <v>844</v>
+      </c>
+      <c r="L34" s="0" t="s">
+        <v>796</v>
+      </c>
+      <c r="M34" s="0" t="s">
+        <v>746</v>
+      </c>
+      <c r="N34" s="0" t="s">
+        <v>663</v>
       </c>
     </row>
   </sheetData>
